--- a/brynmawr/fallAnalysis.xlsx
+++ b/brynmawr/fallAnalysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\cs340-project\brynmawr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D2C953-10F3-43F2-A766-786AA981E4EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C877B2-8B5D-4BF7-897F-C7692529F295}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14895" yWindow="2910" windowWidth="14280" windowHeight="10410" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
   </bookViews>
   <sheets>
     <sheet name="no constraints" sheetId="1" r:id="rId1"/>
     <sheet name="room constraint" sheetId="2" r:id="rId2"/>
+    <sheet name="increasing room size" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Classes</t>
   </si>
@@ -65,6 +66,18 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>This does not have room constraints either</t>
+  </si>
+  <si>
+    <t>0.008996963500976562 seconds</t>
+  </si>
+  <si>
+    <t>Diff Exp</t>
+  </si>
+  <si>
+    <t>Diff %Opt</t>
   </si>
 </sst>
 </file>
@@ -418,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9566DA-555C-428D-8820-0761B1BD8B75}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,19 +975,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44F4F0E-97F0-448B-85BF-165CA56B88B0}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1020,14 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -1038,8 +1059,16 @@
         <f>I2/H2</f>
         <v>0.81248218865773725</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>'room constraint'!I2-'no constraints'!I2</f>
+        <v>-277</v>
+      </c>
+      <c r="L2">
+        <f>J2-'no constraints'!J2</f>
+        <v>-7.8939868908520894E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -1071,8 +1100,16 @@
         <f t="shared" ref="J3:J16" si="0">I3/H3</f>
         <v>0.79684862127180645</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>'room constraint'!I3-'no constraints'!I3</f>
+        <v>-342</v>
+      </c>
+      <c r="L3">
+        <f>J3-'no constraints'!J3</f>
+        <v>-9.6229600450196906E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -1104,8 +1141,16 @@
         <f>I4/H4</f>
         <v>0.81000279407655773</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>'room constraint'!I4-'no constraints'!I4</f>
+        <v>-216</v>
+      </c>
+      <c r="L4">
+        <f>J4-'no constraints'!J4</f>
+        <v>-6.0352053646269832E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -1137,8 +1182,16 @@
         <f t="shared" si="0"/>
         <v>0.82258518727119123</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>'room constraint'!I5-'no constraints'!I5</f>
+        <v>-229</v>
+      </c>
+      <c r="L5">
+        <f>J5-'no constraints'!J5</f>
+        <v>-6.4488876372852721E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -1170,8 +1223,16 @@
         <f t="shared" si="0"/>
         <v>0.82432432432432434</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>'room constraint'!I6-'no constraints'!I6</f>
+        <v>-258</v>
+      </c>
+      <c r="L6">
+        <f>J6-'no constraints'!J6</f>
+        <v>-6.9729729729729684E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -1203,8 +1264,16 @@
         <f>I7/H7</f>
         <v>0.82961956521739133</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>'room constraint'!I7-'no constraints'!I7</f>
+        <v>-213</v>
+      </c>
+      <c r="L7">
+        <f>J7-'no constraints'!J7</f>
+        <v>-5.7880434782608625E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -1236,8 +1305,16 @@
         <f>I8/H8</f>
         <v>0.825434439178515</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f>'room constraint'!I8-'no constraints'!I8</f>
+        <v>-244</v>
+      </c>
+      <c r="L8">
+        <f>J8-'no constraints'!J8</f>
+        <v>-6.4244339125855698E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -1269,8 +1346,16 @@
         <f>I9/H9</f>
         <v>0.83298808907301913</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f>'room constraint'!I9-'no constraints'!I9</f>
+        <v>-232</v>
+      </c>
+      <c r="L9">
+        <f>J9-'no constraints'!J9</f>
+        <v>-6.0072501294666014E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -1302,8 +1387,16 @@
         <f>I10/H10</f>
         <v>0.82973115445440171</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f>'room constraint'!I10-'no constraints'!I10</f>
+        <v>-252</v>
+      </c>
+      <c r="L10">
+        <f>J10-'no constraints'!J10</f>
+        <v>-6.6420664206642055E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -1335,8 +1428,16 @@
         <f t="shared" si="0"/>
         <v>0.82474735025881196</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f>'room constraint'!I11-'no constraints'!I11</f>
+        <v>-314</v>
+      </c>
+      <c r="L11">
+        <f>J11-'no constraints'!J11</f>
+        <v>-7.7397091446881894E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -1368,8 +1469,16 @@
         <f t="shared" si="0"/>
         <v>0.8405732198835647</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f>'room constraint'!I12-'no constraints'!I12</f>
+        <v>-302</v>
+      </c>
+      <c r="L12">
+        <f>J12-'no constraints'!J12</f>
+        <v>-6.7622033139274507E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -1401,8 +1510,16 @@
         <f t="shared" si="0"/>
         <v>0.847356026546778</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f>'room constraint'!I13-'no constraints'!I13</f>
+        <v>-313</v>
+      </c>
+      <c r="L13">
+        <f>J13-'no constraints'!J13</f>
+        <v>-6.7009205737529443E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -1434,8 +1551,16 @@
         <f t="shared" si="0"/>
         <v>0.84188655724080619</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f>'room constraint'!I14-'no constraints'!I14</f>
+        <v>-348</v>
+      </c>
+      <c r="L14">
+        <f>J14-'no constraints'!J14</f>
+        <v>-7.2304176189486813E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -1467,8 +1592,16 @@
         <f t="shared" si="0"/>
         <v>0.83540831399029336</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f>'room constraint'!I15-'no constraints'!I15</f>
+        <v>-374</v>
+      </c>
+      <c r="L15">
+        <f>J15-'no constraints'!J15</f>
+        <v>-7.8919603291833673E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -1499,6 +1632,692 @@
       <c r="J16">
         <f t="shared" si="0"/>
         <v>0.84316736126343494</v>
+      </c>
+      <c r="K16">
+        <f>'room constraint'!I16-'no constraints'!I16</f>
+        <v>-325</v>
+      </c>
+      <c r="L16">
+        <f>J16-'no constraints'!J16</f>
+        <v>-7.1287563062075066E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFABE1D-3621-4D95-B00E-DC62BD93ED73}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>231</v>
+      </c>
+      <c r="C2">
+        <v>164</v>
+      </c>
+      <c r="D2">
+        <v>1112</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>4.0020942687988203E-3</v>
+      </c>
+      <c r="H2">
+        <v>3509</v>
+      </c>
+      <c r="I2">
+        <v>3128</v>
+      </c>
+      <c r="J2">
+        <f>I2/H2</f>
+        <v>0.89142205756625814</v>
+      </c>
+      <c r="K2">
+        <f>I2-'no constraints'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>J2-'no constraints'!J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>222</v>
+      </c>
+      <c r="C3">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>1098</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>9.9999904632568307E-3</v>
+      </c>
+      <c r="H3">
+        <v>3554</v>
+      </c>
+      <c r="I3">
+        <v>3174</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J16" si="0">I3/H3</f>
+        <v>0.89307822172200335</v>
+      </c>
+      <c r="K3">
+        <f>I3-'no constraints'!I3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>J3-'no constraints'!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>239</v>
+      </c>
+      <c r="C4">
+        <v>159</v>
+      </c>
+      <c r="D4">
+        <v>1090</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <v>3.9999485015869097E-3</v>
+      </c>
+      <c r="H4">
+        <v>3579</v>
+      </c>
+      <c r="I4">
+        <v>3133</v>
+      </c>
+      <c r="J4">
+        <f>I4/H4</f>
+        <v>0.8753841855266834</v>
+      </c>
+      <c r="K4">
+        <f>I4-'no constraints'!I4</f>
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <f>J4-'no constraints'!J4</f>
+        <v>5.0293378038558378E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>241</v>
+      </c>
+      <c r="C5">
+        <v>151</v>
+      </c>
+      <c r="D5">
+        <v>1104</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>4.0020942687988203E-3</v>
+      </c>
+      <c r="H5">
+        <v>3551</v>
+      </c>
+      <c r="I5">
+        <v>3159</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.88960856096874119</v>
+      </c>
+      <c r="K5">
+        <f>I5-'no constraints'!I5</f>
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <f>J5-'no constraints'!J5</f>
+        <v>2.534497324697238E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>265</v>
+      </c>
+      <c r="C6">
+        <v>163</v>
+      </c>
+      <c r="D6">
+        <v>1125</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>3700</v>
+      </c>
+      <c r="I6">
+        <v>3309</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.89432432432432429</v>
+      </c>
+      <c r="K6">
+        <f>I6-'no constraints'!I6</f>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>J6-'no constraints'!J6</f>
+        <v>2.7027027027026751E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>255</v>
+      </c>
+      <c r="C7">
+        <v>156</v>
+      </c>
+      <c r="D7">
+        <v>1127</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>8.9969635009765608E-3</v>
+      </c>
+      <c r="H7">
+        <v>3680</v>
+      </c>
+      <c r="I7">
+        <v>3266</v>
+      </c>
+      <c r="J7">
+        <f>I7/H7</f>
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="K7">
+        <f>I7-'no constraints'!I7</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>J7-'no constraints'!J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>269</v>
+      </c>
+      <c r="C8">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <v>1167</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>63</v>
+      </c>
+      <c r="G8">
+        <v>4.9865245819091797E-3</v>
+      </c>
+      <c r="H8">
+        <v>3798</v>
+      </c>
+      <c r="I8">
+        <v>3381</v>
+      </c>
+      <c r="J8">
+        <f>I8/H8</f>
+        <v>0.89020537124802523</v>
+      </c>
+      <c r="K8">
+        <f>I8-'no constraints'!I8</f>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <f>J8-'no constraints'!J8</f>
+        <v>5.2659294365453579E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>283</v>
+      </c>
+      <c r="C9">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>1148</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>7.9994201660156198E-3</v>
+      </c>
+      <c r="H9">
+        <v>3862</v>
+      </c>
+      <c r="I9">
+        <v>3449</v>
+      </c>
+      <c r="J9">
+        <f>I9/H9</f>
+        <v>0.89306059036768515</v>
+      </c>
+      <c r="K9">
+        <f>I9-'no constraints'!I9</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>J9-'no constraints'!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>284</v>
+      </c>
+      <c r="C10">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>1213</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>8.0056190490722604E-3</v>
+      </c>
+      <c r="H10">
+        <v>3794</v>
+      </c>
+      <c r="I10">
+        <v>3400</v>
+      </c>
+      <c r="J10">
+        <f>I10/H10</f>
+        <v>0.89615181866104376</v>
+      </c>
+      <c r="K10">
+        <f>I10-'no constraints'!I10</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>J10-'no constraints'!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>264</v>
+      </c>
+      <c r="C11">
+        <v>164</v>
+      </c>
+      <c r="D11">
+        <v>1352</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>67</v>
+      </c>
+      <c r="G11">
+        <v>3.9997100830078099E-3</v>
+      </c>
+      <c r="H11">
+        <v>4057</v>
+      </c>
+      <c r="I11">
+        <v>3660</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.90214444170569386</v>
+      </c>
+      <c r="K11">
+        <f>I11-'no constraints'!I11</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>J11-'no constraints'!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>288</v>
+      </c>
+      <c r="C12">
+        <v>174</v>
+      </c>
+      <c r="D12">
+        <v>1475</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>68</v>
+      </c>
+      <c r="G12">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="H12">
+        <v>4466</v>
+      </c>
+      <c r="I12">
+        <v>4056</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.90819525302283921</v>
+      </c>
+      <c r="K12">
+        <f>I12-'no constraints'!I12</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>J12-'no constraints'!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>280</v>
+      </c>
+      <c r="C13">
+        <v>172</v>
+      </c>
+      <c r="D13">
+        <v>1600</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="H13">
+        <v>4671</v>
+      </c>
+      <c r="I13">
+        <v>4273</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.91479340612288584</v>
+      </c>
+      <c r="K13">
+        <f>I13-'no constraints'!I13</f>
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <f>J13-'no constraints'!J13</f>
+        <v>4.2817383857840507E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>293</v>
+      </c>
+      <c r="C14">
+        <v>175</v>
+      </c>
+      <c r="D14">
+        <v>1659</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>4.0059089660644497E-3</v>
+      </c>
+      <c r="H14">
+        <v>4813</v>
+      </c>
+      <c r="I14">
+        <v>4400</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.914190733430293</v>
+      </c>
+      <c r="K14">
+        <f>I14-'no constraints'!I14</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>J14-'no constraints'!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>320</v>
+      </c>
+      <c r="C15">
+        <v>179</v>
+      </c>
+      <c r="D15">
+        <v>1644</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>69</v>
+      </c>
+      <c r="G15">
+        <v>3.953218460083E-3</v>
+      </c>
+      <c r="H15">
+        <v>4739</v>
+      </c>
+      <c r="I15">
+        <v>4333</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.91432791728212703</v>
+      </c>
+      <c r="K15">
+        <f>I15-'no constraints'!I15</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>J15-'no constraints'!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>280</v>
+      </c>
+      <c r="C16">
+        <v>183</v>
+      </c>
+      <c r="D16">
+        <v>1635</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>67</v>
+      </c>
+      <c r="G16">
+        <v>8.0018043518066406E-3</v>
+      </c>
+      <c r="H16">
+        <v>4559</v>
+      </c>
+      <c r="I16">
+        <v>4173</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.91533230971704316</v>
+      </c>
+      <c r="K16">
+        <f>I16-'no constraints'!I16</f>
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <f>J16-'no constraints'!J16</f>
+        <v>8.7738539153314754E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/brynmawr/fallAnalysis.xlsx
+++ b/brynmawr/fallAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\cs340-project\brynmawr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C877B2-8B5D-4BF7-897F-C7692529F295}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC19FAFD-7DC5-40D5-870D-2ACAC1B37C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
+    <workbookView xWindow="4695" yWindow="2370" windowWidth="14280" windowHeight="10410" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
   </bookViews>
   <sheets>
     <sheet name="no constraints" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9566DA-555C-428D-8820-0761B1BD8B75}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,17 +493,17 @@
         <v>60</v>
       </c>
       <c r="G2">
-        <v>0.13506531715393</v>
+        <v>1.56254768371582E-2</v>
       </c>
       <c r="H2">
-        <v>3509</v>
+        <v>3497</v>
       </c>
       <c r="I2">
         <v>3128</v>
       </c>
       <c r="J2">
         <f>I2/H2</f>
-        <v>0.89142205756625814</v>
+        <v>0.89448098370031459</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -526,17 +526,17 @@
         <v>59</v>
       </c>
       <c r="G3">
-        <v>0.13440513610839799</v>
+        <v>1.5645980834960899E-2</v>
       </c>
       <c r="H3">
-        <v>3554</v>
+        <v>3542</v>
       </c>
       <c r="I3">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J16" si="0">I3/H3</f>
-        <v>0.89307822172200335</v>
+        <v>0.89582156973461324</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>61</v>
       </c>
       <c r="G4">
-        <v>0.132561445236206</v>
+        <v>1.56702995300292E-2</v>
       </c>
       <c r="H4">
         <v>3579</v>
@@ -592,17 +592,17 @@
         <v>59</v>
       </c>
       <c r="G5">
-        <v>0.142691850662231</v>
+        <v>6.5059661865234297E-3</v>
       </c>
       <c r="H5">
-        <v>3551</v>
+        <v>3539</v>
       </c>
       <c r="I5">
-        <v>3150</v>
+        <v>3152</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.88707406364404395</v>
+        <v>0.89064707544504096</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>51</v>
       </c>
       <c r="G6">
-        <v>0.150865793228149</v>
+        <v>1.55718326568603E-2</v>
       </c>
       <c r="H6">
         <v>3700</v>
@@ -658,7 +658,7 @@
         <v>52</v>
       </c>
       <c r="G7">
-        <v>0.144461154937744</v>
+        <v>8.55255126953125E-3</v>
       </c>
       <c r="H7">
         <v>3680</v>
@@ -691,7 +691,7 @@
         <v>63</v>
       </c>
       <c r="G8">
-        <v>0.15684175491332999</v>
+        <v>1.5620231628417899E-2</v>
       </c>
       <c r="H8">
         <v>3798</v>
@@ -724,7 +724,7 @@
         <v>62</v>
       </c>
       <c r="G9">
-        <v>0.16416549682617099</v>
+        <v>8.0521106719970703E-3</v>
       </c>
       <c r="H9">
         <v>3862</v>
@@ -757,7 +757,7 @@
         <v>63</v>
       </c>
       <c r="G10">
-        <v>0.16353082656860299</v>
+        <v>1.56214237213134E-2</v>
       </c>
       <c r="H10">
         <v>3794</v>
@@ -790,7 +790,7 @@
         <v>67</v>
       </c>
       <c r="G11">
-        <v>0.14669775962829501</v>
+        <v>1.5674114227294901E-2</v>
       </c>
       <c r="H11">
         <v>4057</v>
@@ -823,7 +823,7 @@
         <v>68</v>
       </c>
       <c r="G12">
-        <v>0.15976047515869099</v>
+        <v>1.56211853027343E-2</v>
       </c>
       <c r="H12">
         <v>4466</v>
@@ -856,7 +856,7 @@
         <v>64</v>
       </c>
       <c r="G13">
-        <v>0.16293859481811501</v>
+        <v>1.0038137435912999E-2</v>
       </c>
       <c r="H13">
         <v>4671</v>
@@ -889,7 +889,7 @@
         <v>70</v>
       </c>
       <c r="G14">
-        <v>0.18504357337951599</v>
+        <v>1.56214237213134E-2</v>
       </c>
       <c r="H14">
         <v>4813</v>
@@ -922,7 +922,7 @@
         <v>69</v>
       </c>
       <c r="G15">
-        <v>0.18128752708435</v>
+        <v>1.5671730041503899E-2</v>
       </c>
       <c r="H15">
         <v>4739</v>
@@ -955,17 +955,17 @@
         <v>67</v>
       </c>
       <c r="G16">
-        <v>0.18157720565795801</v>
+        <v>1.98664665222167E-2</v>
       </c>
       <c r="H16">
-        <v>4559</v>
+        <v>4558</v>
       </c>
       <c r="I16">
-        <v>4169</v>
+        <v>4165</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0.91445492432551001</v>
+        <v>0.91377797279508555</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44F4F0E-97F0-448B-85BF-165CA56B88B0}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="L2">
         <f>J2-'no constraints'!J2</f>
-        <v>-7.8939868908520894E-2</v>
+        <v>-8.1998795042577344E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="K3">
         <f>'room constraint'!I3-'no constraints'!I3</f>
-        <v>-342</v>
+        <v>-341</v>
       </c>
       <c r="L3">
         <f>J3-'no constraints'!J3</f>
-        <v>-9.6229600450196906E-2</v>
+        <v>-9.8972948462806798E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1184,11 +1184,11 @@
       </c>
       <c r="K5">
         <f>'room constraint'!I5-'no constraints'!I5</f>
-        <v>-229</v>
+        <v>-231</v>
       </c>
       <c r="L5">
         <f>J5-'no constraints'!J5</f>
-        <v>-6.4488876372852721E-2</v>
+        <v>-6.8061888173849727E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1635,11 +1635,11 @@
       </c>
       <c r="K16">
         <f>'room constraint'!I16-'no constraints'!I16</f>
-        <v>-325</v>
+        <v>-321</v>
       </c>
       <c r="L16">
         <f>J16-'no constraints'!J16</f>
-        <v>-7.1287563062075066E-2</v>
+        <v>-7.0610611531650602E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="L2">
         <f>J2-'no constraints'!J2</f>
-        <v>0</v>
+        <v>-3.05892613405645E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1775,11 +1775,11 @@
       </c>
       <c r="K3">
         <f>I3-'no constraints'!I3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <f>J3-'no constraints'!J3</f>
-        <v>0</v>
+        <v>-2.7433480126098919E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1857,11 +1857,11 @@
       </c>
       <c r="K5">
         <f>I5-'no constraints'!I5</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <f>J5-'no constraints'!J5</f>
-        <v>2.534497324697238E-3</v>
+        <v>-1.0385144762997678E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="K16">
         <f>I16-'no constraints'!I16</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L16">
         <f>J16-'no constraints'!J16</f>
-        <v>8.7738539153314754E-4</v>
+        <v>1.5543369219576109E-3</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">

--- a/brynmawr/fallAnalysis.xlsx
+++ b/brynmawr/fallAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\cs340-project\brynmawr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC19FAFD-7DC5-40D5-870D-2ACAC1B37C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33856FC-2C3A-4F9B-BCAD-9C78503626C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="2370" windowWidth="14280" windowHeight="10410" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
+    <workbookView xWindow="2775" yWindow="2820" windowWidth="14280" windowHeight="10410" activeTab="1" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
   </bookViews>
   <sheets>
     <sheet name="no constraints" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9566DA-555C-428D-8820-0761B1BD8B75}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
         <v>167</v>
       </c>
       <c r="D3">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E3">
         <v>17</v>
@@ -616,7 +616,7 @@
         <v>163</v>
       </c>
       <c r="D6">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E6">
         <v>17</v>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44F4F0E-97F0-448B-85BF-165CA56B88B0}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,17 +1047,17 @@
         <v>60</v>
       </c>
       <c r="G2">
-        <v>0.13311719894409099</v>
+        <v>1.56607627868652E-2</v>
       </c>
       <c r="H2">
-        <v>3509</v>
+        <v>3497</v>
       </c>
       <c r="I2">
         <v>2851</v>
       </c>
       <c r="J2">
         <f>I2/H2</f>
-        <v>0.81248218865773725</v>
+        <v>0.81527023162710899</v>
       </c>
       <c r="K2">
         <f>'room constraint'!I2-'no constraints'!I2</f>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="L2">
         <f>J2-'no constraints'!J2</f>
-        <v>-8.1998795042577344E-2</v>
+        <v>-7.9210752073205604E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>167</v>
       </c>
       <c r="D3">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E3">
         <v>17</v>
@@ -1088,17 +1088,17 @@
         <v>59</v>
       </c>
       <c r="G3">
-        <v>0.13456344604492099</v>
+        <v>1.56221389770507E-2</v>
       </c>
       <c r="H3">
-        <v>3554</v>
+        <v>3542</v>
       </c>
       <c r="I3">
         <v>2832</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J16" si="0">I3/H3</f>
-        <v>0.79684862127180645</v>
+        <v>0.79954827780914739</v>
       </c>
       <c r="K3">
         <f>'room constraint'!I3-'no constraints'!I3</f>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="L3">
         <f>J3-'no constraints'!J3</f>
-        <v>-9.8972948462806798E-2</v>
+        <v>-9.6273291925465854E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>61</v>
       </c>
       <c r="G4">
-        <v>0.14238929748535101</v>
+        <v>1.56211853027343E-2</v>
       </c>
       <c r="H4">
         <v>3579</v>
@@ -1170,25 +1170,25 @@
         <v>59</v>
       </c>
       <c r="G5">
-        <v>0.14657616615295399</v>
+        <v>1.56216621398925E-2</v>
       </c>
       <c r="H5">
-        <v>3551</v>
+        <v>3539</v>
       </c>
       <c r="I5">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.82258518727119123</v>
+        <v>0.82480926815484601</v>
       </c>
       <c r="K5">
         <f>'room constraint'!I5-'no constraints'!I5</f>
-        <v>-231</v>
+        <v>-233</v>
       </c>
       <c r="L5">
         <f>J5-'no constraints'!J5</f>
-        <v>-6.8061888173849727E-2</v>
+        <v>-6.583780729019495E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>163</v>
       </c>
       <c r="D6">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E6">
         <v>17</v>
@@ -1211,7 +1211,7 @@
         <v>51</v>
       </c>
       <c r="G6">
-        <v>0.17789149284362701</v>
+        <v>1.56214237213134E-2</v>
       </c>
       <c r="H6">
         <v>3700</v>
@@ -1252,7 +1252,7 @@
         <v>52</v>
       </c>
       <c r="G7">
-        <v>0.156272888183593</v>
+        <v>1.56211853027343E-2</v>
       </c>
       <c r="H7">
         <v>3680</v>
@@ -1293,7 +1293,7 @@
         <v>63</v>
       </c>
       <c r="G8">
-        <v>0.15972018241882299</v>
+        <v>1.56211853027343E-2</v>
       </c>
       <c r="H8">
         <v>3798</v>
@@ -1334,7 +1334,7 @@
         <v>62</v>
       </c>
       <c r="G9">
-        <v>0.16385531425475999</v>
+        <v>1.56214237213134E-2</v>
       </c>
       <c r="H9">
         <v>3862</v>
@@ -1375,7 +1375,7 @@
         <v>63</v>
       </c>
       <c r="G10">
-        <v>0.167012929916381</v>
+        <v>1.5658617019653299E-2</v>
       </c>
       <c r="H10">
         <v>3794</v>
@@ -1416,7 +1416,7 @@
         <v>67</v>
       </c>
       <c r="G11">
-        <v>0.16224861145019501</v>
+        <v>1.5666961669921799E-2</v>
       </c>
       <c r="H11">
         <v>4057</v>
@@ -1457,7 +1457,7 @@
         <v>68</v>
       </c>
       <c r="G12">
-        <v>0.169071674346923</v>
+        <v>1.56214237213134E-2</v>
       </c>
       <c r="H12">
         <v>4466</v>
@@ -1498,7 +1498,7 @@
         <v>64</v>
       </c>
       <c r="G13">
-        <v>0.168821096420288</v>
+        <v>1.5628099441528299E-2</v>
       </c>
       <c r="H13">
         <v>4671</v>
@@ -1539,7 +1539,7 @@
         <v>70</v>
       </c>
       <c r="G14">
-        <v>0.18248581886291501</v>
+        <v>1.5623092651367101E-2</v>
       </c>
       <c r="H14">
         <v>4813</v>
@@ -1580,7 +1580,7 @@
         <v>69</v>
       </c>
       <c r="G15">
-        <v>0.20447587966918901</v>
+        <v>2.3675680160522398E-2</v>
       </c>
       <c r="H15">
         <v>4739</v>
@@ -1621,25 +1621,25 @@
         <v>67</v>
       </c>
       <c r="G16">
-        <v>0.2127206325531</v>
+        <v>1.5666961669921799E-2</v>
       </c>
       <c r="H16">
-        <v>4559</v>
+        <v>4558</v>
       </c>
       <c r="I16">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0.84316736126343494</v>
+        <v>0.84313295304958313</v>
       </c>
       <c r="K16">
         <f>'room constraint'!I16-'no constraints'!I16</f>
-        <v>-321</v>
+        <v>-322</v>
       </c>
       <c r="L16">
         <f>J16-'no constraints'!J16</f>
-        <v>-7.0610611531650602E-2</v>
+        <v>-7.0645019745502413E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1652,7 +1652,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,14 +1723,14 @@
         <v>4.0020942687988203E-3</v>
       </c>
       <c r="H2">
-        <v>3509</v>
+        <v>3497</v>
       </c>
       <c r="I2">
         <v>3128</v>
       </c>
       <c r="J2">
         <f>I2/H2</f>
-        <v>0.89142205756625814</v>
+        <v>0.89448098370031459</v>
       </c>
       <c r="K2">
         <f>I2-'no constraints'!I2</f>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="L2">
         <f>J2-'no constraints'!J2</f>
-        <v>-3.05892613405645E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>167</v>
       </c>
       <c r="D3">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E3">
         <v>17</v>
@@ -1764,14 +1764,14 @@
         <v>9.9999904632568307E-3</v>
       </c>
       <c r="H3">
-        <v>3554</v>
+        <v>3542</v>
       </c>
       <c r="I3">
         <v>3174</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J16" si="0">I3/H3</f>
-        <v>0.89307822172200335</v>
+        <v>0.89610389610389607</v>
       </c>
       <c r="K3">
         <f>I3-'no constraints'!I3</f>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="L3">
         <f>J3-'no constraints'!J3</f>
-        <v>-2.7433480126098919E-3</v>
+        <v>2.8232636928282595E-4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1846,14 +1846,14 @@
         <v>4.0020942687988203E-3</v>
       </c>
       <c r="H5">
-        <v>3551</v>
+        <v>3539</v>
       </c>
       <c r="I5">
         <v>3159</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.88960856096874119</v>
+        <v>0.89262503532071202</v>
       </c>
       <c r="K5">
         <f>I5-'no constraints'!I5</f>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="L5">
         <f>J5-'no constraints'!J5</f>
-        <v>-1.0385144762997678E-3</v>
+        <v>1.9779598756710648E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1875,7 +1875,7 @@
         <v>163</v>
       </c>
       <c r="D6">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E6">
         <v>17</v>
@@ -2297,14 +2297,14 @@
         <v>8.0018043518066406E-3</v>
       </c>
       <c r="H16">
-        <v>4559</v>
+        <v>4558</v>
       </c>
       <c r="I16">
         <v>4173</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0.91533230971704316</v>
+        <v>0.91553312856516011</v>
       </c>
       <c r="K16">
         <f>I16-'no constraints'!I16</f>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="L16">
         <f>J16-'no constraints'!J16</f>
-        <v>1.5543369219576109E-3</v>
+        <v>1.7551557700745679E-3</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">

--- a/brynmawr/fallAnalysis.xlsx
+++ b/brynmawr/fallAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\cs340-project\brynmawr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33856FC-2C3A-4F9B-BCAD-9C78503626C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8234D55D-CC5C-40D6-8F6D-03BB7197EF85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2820" windowWidth="14280" windowHeight="10410" activeTab="1" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
+    <workbookView xWindow="11700" yWindow="3435" windowWidth="14280" windowHeight="10410" activeTab="2" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
   </bookViews>
   <sheets>
     <sheet name="no constraints" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Classes</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>This does not have room constraints either</t>
-  </si>
-  <si>
-    <t>0.008996963500976562 seconds</t>
   </si>
   <si>
     <t>Diff Exp</t>
@@ -977,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44F4F0E-97F0-448B-85BF-165CA56B88B0}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1021,10 +1018,10 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1651,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFABE1D-3621-4D95-B00E-DC62BD93ED73}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,10 +1691,10 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1720,7 +1717,7 @@
         <v>60</v>
       </c>
       <c r="G2">
-        <v>4.0020942687988203E-3</v>
+        <v>1.30233764648437E-2</v>
       </c>
       <c r="H2">
         <v>3497</v>
@@ -1761,25 +1758,25 @@
         <v>59</v>
       </c>
       <c r="G3">
-        <v>9.9999904632568307E-3</v>
+        <v>1.0282039642333899E-2</v>
       </c>
       <c r="H3">
         <v>3542</v>
       </c>
       <c r="I3">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J16" si="0">I3/H3</f>
-        <v>0.89610389610389607</v>
+        <v>0.89582156973461324</v>
       </c>
       <c r="K3">
         <f>I3-'no constraints'!I3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <f>J3-'no constraints'!J3</f>
-        <v>2.8232636928282595E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1802,7 +1799,7 @@
         <v>61</v>
       </c>
       <c r="G4">
-        <v>3.9999485015869097E-3</v>
+        <v>1.0424852371215799E-2</v>
       </c>
       <c r="H4">
         <v>3579</v>
@@ -1843,25 +1840,25 @@
         <v>59</v>
       </c>
       <c r="G5">
-        <v>4.0020942687988203E-3</v>
+        <v>1.31230354309082E-2</v>
       </c>
       <c r="H5">
         <v>3539</v>
       </c>
       <c r="I5">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.89262503532071202</v>
+        <v>0.89319016671376095</v>
       </c>
       <c r="K5">
         <f>I5-'no constraints'!I5</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L5">
         <f>J5-'no constraints'!J5</f>
-        <v>1.9779598756710648E-3</v>
+        <v>2.543091268719988E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1883,8 +1880,8 @@
       <c r="F6">
         <v>51</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
+      <c r="G6">
+        <v>9.8819732666015608E-3</v>
       </c>
       <c r="H6">
         <v>3700</v>
@@ -1925,7 +1922,7 @@
         <v>52</v>
       </c>
       <c r="G7">
-        <v>8.9969635009765608E-3</v>
+        <v>1.1027812957763601E-2</v>
       </c>
       <c r="H7">
         <v>3680</v>
@@ -1966,7 +1963,7 @@
         <v>63</v>
       </c>
       <c r="G8">
-        <v>4.9865245819091797E-3</v>
+        <v>1.2421846389770499E-2</v>
       </c>
       <c r="H8">
         <v>3798</v>
@@ -2007,7 +2004,7 @@
         <v>62</v>
       </c>
       <c r="G9">
-        <v>7.9994201660156198E-3</v>
+        <v>1.1552095413207999E-2</v>
       </c>
       <c r="H9">
         <v>3862</v>
@@ -2048,7 +2045,7 @@
         <v>63</v>
       </c>
       <c r="G10">
-        <v>8.0056190490722604E-3</v>
+        <v>1.26750469207763E-2</v>
       </c>
       <c r="H10">
         <v>3794</v>
@@ -2089,7 +2086,7 @@
         <v>67</v>
       </c>
       <c r="G11">
-        <v>3.9997100830078099E-3</v>
+        <v>1.07879638671875E-2</v>
       </c>
       <c r="H11">
         <v>4057</v>
@@ -2130,7 +2127,7 @@
         <v>68</v>
       </c>
       <c r="G12">
-        <v>7.9998970031738195E-3</v>
+        <v>1.60486698150634E-2</v>
       </c>
       <c r="H12">
         <v>4466</v>
@@ -2171,7 +2168,7 @@
         <v>64</v>
       </c>
       <c r="G13">
-        <v>7.9998970031738195E-3</v>
+        <v>1.2868881225585899E-2</v>
       </c>
       <c r="H13">
         <v>4671</v>
@@ -2212,7 +2209,7 @@
         <v>70</v>
       </c>
       <c r="G14">
-        <v>4.0059089660644497E-3</v>
+        <v>1.2700080871582E-2</v>
       </c>
       <c r="H14">
         <v>4813</v>
@@ -2253,7 +2250,7 @@
         <v>69</v>
       </c>
       <c r="G15">
-        <v>3.953218460083E-3</v>
+        <v>1.6459941864013599E-2</v>
       </c>
       <c r="H15">
         <v>4739</v>
@@ -2294,25 +2291,25 @@
         <v>67</v>
       </c>
       <c r="G16">
-        <v>8.0018043518066406E-3</v>
+        <v>1.4331102371215799E-2</v>
       </c>
       <c r="H16">
         <v>4558</v>
       </c>
       <c r="I16">
-        <v>4173</v>
+        <v>4169</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0.91553312856516011</v>
+        <v>0.91465555068012283</v>
       </c>
       <c r="K16">
         <f>I16-'no constraints'!I16</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L16">
         <f>J16-'no constraints'!J16</f>
-        <v>1.7551557700745679E-3</v>
+        <v>8.7757788503728396E-4</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2322,5 +2319,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/brynmawr/fallAnalysis.xlsx
+++ b/brynmawr/fallAnalysis.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\cs340-project\brynmawr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8234D55D-CC5C-40D6-8F6D-03BB7197EF85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88F9FBB-98BC-4100-ADED-DB84D8C1972B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="3435" windowWidth="14280" windowHeight="10410" activeTab="2" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
+    <workbookView xWindow="3840" yWindow="2475" windowWidth="14280" windowHeight="10410" firstSheet="2" activeTab="3" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
   </bookViews>
   <sheets>
     <sheet name="no constraints" sheetId="1" r:id="rId1"/>
     <sheet name="room constraint" sheetId="2" r:id="rId2"/>
     <sheet name="increasing room size" sheetId="3" r:id="rId3"/>
+    <sheet name="limiting subject conflict" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
   <si>
     <t>Classes</t>
   </si>
@@ -1648,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFABE1D-3621-4D95-B00E-DC62BD93ED73}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,4 +2322,672 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52293D6E-ACFD-4E22-982B-246A4AD891D0}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>231</v>
+      </c>
+      <c r="C2">
+        <v>164</v>
+      </c>
+      <c r="D2">
+        <v>1112</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>7.9793930053710903E-3</v>
+      </c>
+      <c r="H2">
+        <v>3497</v>
+      </c>
+      <c r="I2">
+        <v>3133</v>
+      </c>
+      <c r="J2">
+        <f>I2/H2</f>
+        <v>0.89591078066914498</v>
+      </c>
+      <c r="K2">
+        <f>I2-'no constraints'!I2</f>
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <f>J2-'no constraints'!J2</f>
+        <v>1.429796968830388E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>222</v>
+      </c>
+      <c r="C3">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>1096</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>4.9862861633300703E-3</v>
+      </c>
+      <c r="H3">
+        <v>3542</v>
+      </c>
+      <c r="I3">
+        <v>3189</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J16" si="0">I3/H3</f>
+        <v>0.90033879164313946</v>
+      </c>
+      <c r="K3">
+        <f>I3-'no constraints'!I3</f>
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <f>J3-'no constraints'!J3</f>
+        <v>4.5172219085262144E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>239</v>
+      </c>
+      <c r="C4">
+        <v>159</v>
+      </c>
+      <c r="D4">
+        <v>1090</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <v>4.0507316589355399E-3</v>
+      </c>
+      <c r="H4">
+        <v>3579</v>
+      </c>
+      <c r="I4">
+        <v>3112</v>
+      </c>
+      <c r="J4">
+        <f>I4/H4</f>
+        <v>0.86951662475551827</v>
+      </c>
+      <c r="K4">
+        <f>I4-'no constraints'!I4</f>
+        <v>-3</v>
+      </c>
+      <c r="L4">
+        <f>J4-'no constraints'!J4</f>
+        <v>-8.382229673092878E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>241</v>
+      </c>
+      <c r="C5">
+        <v>151</v>
+      </c>
+      <c r="D5">
+        <v>1104</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>8.0018043518066406E-3</v>
+      </c>
+      <c r="H5">
+        <v>3539</v>
+      </c>
+      <c r="I5">
+        <v>3168</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.89516812658943201</v>
+      </c>
+      <c r="K5">
+        <f>I5-'no constraints'!I5</f>
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <f>J5-'no constraints'!J5</f>
+        <v>4.5210511443910528E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>265</v>
+      </c>
+      <c r="C6">
+        <v>163</v>
+      </c>
+      <c r="D6">
+        <v>1124</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>51</v>
+      </c>
+      <c r="G6">
+        <v>4.9865245819091797E-3</v>
+      </c>
+      <c r="H6">
+        <v>3700</v>
+      </c>
+      <c r="I6">
+        <v>3339</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.90243243243243243</v>
+      </c>
+      <c r="K6">
+        <f>I6-'no constraints'!I6</f>
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <f>J6-'no constraints'!J6</f>
+        <v>8.3783783783784038E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>255</v>
+      </c>
+      <c r="C7">
+        <v>156</v>
+      </c>
+      <c r="D7">
+        <v>1127</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>6.0017108917236302E-3</v>
+      </c>
+      <c r="H7">
+        <v>3680</v>
+      </c>
+      <c r="I7">
+        <v>3304</v>
+      </c>
+      <c r="J7">
+        <f>I7/H7</f>
+        <v>0.89782608695652177</v>
+      </c>
+      <c r="K7">
+        <f>I7-'no constraints'!I7</f>
+        <v>38</v>
+      </c>
+      <c r="L7">
+        <f>J7-'no constraints'!J7</f>
+        <v>1.0326086956521818E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>269</v>
+      </c>
+      <c r="C8">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <v>1167</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>63</v>
+      </c>
+      <c r="G8">
+        <v>8.0003738403320295E-3</v>
+      </c>
+      <c r="H8">
+        <v>3798</v>
+      </c>
+      <c r="I8">
+        <v>3391</v>
+      </c>
+      <c r="J8">
+        <f>I8/H8</f>
+        <v>0.89283833596629802</v>
+      </c>
+      <c r="K8">
+        <f>I8-'no constraints'!I8</f>
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <f>J8-'no constraints'!J8</f>
+        <v>3.1595576619273258E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>283</v>
+      </c>
+      <c r="C9">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>1148</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>6.9813728332519497E-3</v>
+      </c>
+      <c r="H9">
+        <v>3862</v>
+      </c>
+      <c r="I9">
+        <v>3480</v>
+      </c>
+      <c r="J9">
+        <f>I9/H9</f>
+        <v>0.90108751941998966</v>
+      </c>
+      <c r="K9">
+        <f>I9-'no constraints'!I9</f>
+        <v>31</v>
+      </c>
+      <c r="L9">
+        <f>J9-'no constraints'!J9</f>
+        <v>8.02692905230451E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>284</v>
+      </c>
+      <c r="C10">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>1213</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>7.9994201660156198E-3</v>
+      </c>
+      <c r="H10">
+        <v>3794</v>
+      </c>
+      <c r="I10">
+        <v>3410</v>
+      </c>
+      <c r="J10">
+        <f>I10/H10</f>
+        <v>0.89878755930416443</v>
+      </c>
+      <c r="K10">
+        <f>I10-'no constraints'!I10</f>
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f>J10-'no constraints'!J10</f>
+        <v>2.6357406431206654E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>264</v>
+      </c>
+      <c r="C11">
+        <v>164</v>
+      </c>
+      <c r="D11">
+        <v>1352</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>67</v>
+      </c>
+      <c r="G11">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="H11">
+        <v>4057</v>
+      </c>
+      <c r="I11">
+        <v>3700</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.91200394380083805</v>
+      </c>
+      <c r="K11">
+        <f>I11-'no constraints'!I11</f>
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <f>J11-'no constraints'!J11</f>
+        <v>9.8595020951441903E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>288</v>
+      </c>
+      <c r="C12">
+        <v>174</v>
+      </c>
+      <c r="D12">
+        <v>1475</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>68</v>
+      </c>
+      <c r="G12">
+        <v>5.9874057769775304E-3</v>
+      </c>
+      <c r="H12">
+        <v>4466</v>
+      </c>
+      <c r="I12">
+        <v>4091</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.91603224361845048</v>
+      </c>
+      <c r="K12">
+        <f>I12-'no constraints'!I12</f>
+        <v>35</v>
+      </c>
+      <c r="L12">
+        <f>J12-'no constraints'!J12</f>
+        <v>7.8369905956112706E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>280</v>
+      </c>
+      <c r="C13">
+        <v>172</v>
+      </c>
+      <c r="D13">
+        <v>1600</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="H13">
+        <v>4671</v>
+      </c>
+      <c r="I13">
+        <v>4312</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.92314279597516591</v>
+      </c>
+      <c r="K13">
+        <f>I13-'no constraints'!I13</f>
+        <v>41</v>
+      </c>
+      <c r="L13">
+        <f>J13-'no constraints'!J13</f>
+        <v>8.7775636908584698E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>293</v>
+      </c>
+      <c r="C14">
+        <v>175</v>
+      </c>
+      <c r="D14">
+        <v>1659</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>8.0018043518066406E-3</v>
+      </c>
+      <c r="H14">
+        <v>4813</v>
+      </c>
+      <c r="I14">
+        <v>4417</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.91772283399127363</v>
+      </c>
+      <c r="K14">
+        <f>I14-'no constraints'!I14</f>
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <f>J14-'no constraints'!J14</f>
+        <v>3.5321005609806333E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>320</v>
+      </c>
+      <c r="C15">
+        <v>179</v>
+      </c>
+      <c r="D15">
+        <v>1644</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>69</v>
+      </c>
+      <c r="G15">
+        <v>1.2001752853393499E-2</v>
+      </c>
+      <c r="H15">
+        <v>4739</v>
+      </c>
+      <c r="I15">
+        <v>4385</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.92530069634944079</v>
+      </c>
+      <c r="K15">
+        <f>I15-'no constraints'!I15</f>
+        <v>52</v>
+      </c>
+      <c r="L15">
+        <f>J15-'no constraints'!J15</f>
+        <v>1.0972779067313754E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>280</v>
+      </c>
+      <c r="C16">
+        <v>183</v>
+      </c>
+      <c r="D16">
+        <v>1635</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>67</v>
+      </c>
+      <c r="G16">
+        <v>6.9813728332519497E-3</v>
+      </c>
+      <c r="H16">
+        <v>4558</v>
+      </c>
+      <c r="I16">
+        <v>4165</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.91377797279508555</v>
+      </c>
+      <c r="K16">
+        <f>I16-'no constraints'!I16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>J16-'no constraints'!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/brynmawr/fallAnalysis.xlsx
+++ b/brynmawr/fallAnalysis.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\cs340-project\brynmawr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88F9FBB-98BC-4100-ADED-DB84D8C1972B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E67413-6EC6-4DF5-8D12-D893BA32FAE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2475" windowWidth="14280" windowHeight="10410" firstSheet="2" activeTab="3" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
+    <workbookView xWindow="3510" yWindow="2475" windowWidth="17040" windowHeight="10800" firstSheet="1" activeTab="4" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
   </bookViews>
   <sheets>
     <sheet name="no constraints" sheetId="1" r:id="rId1"/>
     <sheet name="room constraint" sheetId="2" r:id="rId2"/>
     <sheet name="increasing room size" sheetId="3" r:id="rId3"/>
     <sheet name="limiting subject conflict" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="13">
   <si>
     <t>Classes</t>
   </si>
@@ -430,7 +431,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52293D6E-ACFD-4E22-982B-246A4AD891D0}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,4 +2991,582 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABFF373-15E8-4DD5-B038-F8F537CA4CBA}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>231</v>
+      </c>
+      <c r="C2">
+        <v>164</v>
+      </c>
+      <c r="D2">
+        <v>1112</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>3497</v>
+      </c>
+      <c r="J2">
+        <f>I2/H2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>I2-'no constraints'!I2</f>
+        <v>-3128</v>
+      </c>
+      <c r="L2">
+        <f>J2-'no constraints'!J2</f>
+        <v>-0.89448098370031459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>222</v>
+      </c>
+      <c r="C3">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>1096</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+      <c r="H3">
+        <v>3542</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J16" si="0">I3/H3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>I3-'no constraints'!I3</f>
+        <v>-3173</v>
+      </c>
+      <c r="L3">
+        <f>J3-'no constraints'!J3</f>
+        <v>-0.89582156973461324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>239</v>
+      </c>
+      <c r="C4">
+        <v>159</v>
+      </c>
+      <c r="D4">
+        <v>1090</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>61</v>
+      </c>
+      <c r="H4">
+        <v>3579</v>
+      </c>
+      <c r="J4">
+        <f>I4/H4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>I4-'no constraints'!I4</f>
+        <v>-3115</v>
+      </c>
+      <c r="L4">
+        <f>J4-'no constraints'!J4</f>
+        <v>-0.87035484772282756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>241</v>
+      </c>
+      <c r="C5">
+        <v>151</v>
+      </c>
+      <c r="D5">
+        <v>1104</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>59</v>
+      </c>
+      <c r="H5">
+        <v>3539</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>I5-'no constraints'!I5</f>
+        <v>-3152</v>
+      </c>
+      <c r="L5">
+        <f>J5-'no constraints'!J5</f>
+        <v>-0.89064707544504096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>265</v>
+      </c>
+      <c r="C6">
+        <v>163</v>
+      </c>
+      <c r="D6">
+        <v>1124</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>3700</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>I6-'no constraints'!I6</f>
+        <v>-3308</v>
+      </c>
+      <c r="L6">
+        <f>J6-'no constraints'!J6</f>
+        <v>-0.89405405405405403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>255</v>
+      </c>
+      <c r="C7">
+        <v>156</v>
+      </c>
+      <c r="D7">
+        <v>1127</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="H7">
+        <v>3680</v>
+      </c>
+      <c r="J7">
+        <f>I7/H7</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>I7-'no constraints'!I7</f>
+        <v>-3266</v>
+      </c>
+      <c r="L7">
+        <f>J7-'no constraints'!J7</f>
+        <v>-0.88749999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>269</v>
+      </c>
+      <c r="C8">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <v>1167</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>63</v>
+      </c>
+      <c r="H8">
+        <v>3798</v>
+      </c>
+      <c r="J8">
+        <f>I8/H8</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>I8-'no constraints'!I8</f>
+        <v>-3379</v>
+      </c>
+      <c r="L8">
+        <f>J8-'no constraints'!J8</f>
+        <v>-0.8896787783043707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>283</v>
+      </c>
+      <c r="C9">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>1148</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>62</v>
+      </c>
+      <c r="H9">
+        <v>3862</v>
+      </c>
+      <c r="J9">
+        <f>I9/H9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>I9-'no constraints'!I9</f>
+        <v>-3449</v>
+      </c>
+      <c r="L9">
+        <f>J9-'no constraints'!J9</f>
+        <v>-0.89306059036768515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>284</v>
+      </c>
+      <c r="C10">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>1213</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>63</v>
+      </c>
+      <c r="H10">
+        <v>3794</v>
+      </c>
+      <c r="J10">
+        <f>I10/H10</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>I10-'no constraints'!I10</f>
+        <v>-3400</v>
+      </c>
+      <c r="L10">
+        <f>J10-'no constraints'!J10</f>
+        <v>-0.89615181866104376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>264</v>
+      </c>
+      <c r="C11">
+        <v>164</v>
+      </c>
+      <c r="D11">
+        <v>1352</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>67</v>
+      </c>
+      <c r="H11">
+        <v>4057</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>I11-'no constraints'!I11</f>
+        <v>-3660</v>
+      </c>
+      <c r="L11">
+        <f>J11-'no constraints'!J11</f>
+        <v>-0.90214444170569386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>288</v>
+      </c>
+      <c r="C12">
+        <v>174</v>
+      </c>
+      <c r="D12">
+        <v>1475</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>68</v>
+      </c>
+      <c r="H12">
+        <v>4466</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>I12-'no constraints'!I12</f>
+        <v>-4056</v>
+      </c>
+      <c r="L12">
+        <f>J12-'no constraints'!J12</f>
+        <v>-0.90819525302283921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>280</v>
+      </c>
+      <c r="C13">
+        <v>172</v>
+      </c>
+      <c r="D13">
+        <v>1600</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>64</v>
+      </c>
+      <c r="H13">
+        <v>4671</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>I13-'no constraints'!I13</f>
+        <v>-4271</v>
+      </c>
+      <c r="L13">
+        <f>J13-'no constraints'!J13</f>
+        <v>-0.91436523228430744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>293</v>
+      </c>
+      <c r="C14">
+        <v>175</v>
+      </c>
+      <c r="D14">
+        <v>1659</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="H14">
+        <v>4813</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>I14-'no constraints'!I14</f>
+        <v>-4400</v>
+      </c>
+      <c r="L14">
+        <f>J14-'no constraints'!J14</f>
+        <v>-0.914190733430293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>320</v>
+      </c>
+      <c r="C15">
+        <v>179</v>
+      </c>
+      <c r="D15">
+        <v>1644</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>4739</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>I15-'no constraints'!I15</f>
+        <v>-4333</v>
+      </c>
+      <c r="L15">
+        <f>J15-'no constraints'!J15</f>
+        <v>-0.91432791728212703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>280</v>
+      </c>
+      <c r="C16">
+        <v>183</v>
+      </c>
+      <c r="D16">
+        <v>1635</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>4558</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>I16-'no constraints'!I16</f>
+        <v>-4165</v>
+      </c>
+      <c r="L16">
+        <f>J16-'no constraints'!J16</f>
+        <v>-0.91377797279508555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/brynmawr/fallAnalysis.xlsx
+++ b/brynmawr/fallAnalysis.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\cs340-project\brynmawr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E67413-6EC6-4DF5-8D12-D893BA32FAE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADBDD8B-0DEB-4023-801E-16E9781382DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2475" windowWidth="17040" windowHeight="10800" firstSheet="1" activeTab="4" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
+    <workbookView xWindow="2130" yWindow="2730" windowWidth="17040" windowHeight="10800" firstSheet="2" activeTab="4" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
   </bookViews>
   <sheets>
     <sheet name="no constraints" sheetId="1" r:id="rId1"/>
     <sheet name="room constraint" sheetId="2" r:id="rId2"/>
     <sheet name="increasing room size" sheetId="3" r:id="rId3"/>
     <sheet name="limiting subject conflict" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="level constraint" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2998,10 +2998,14 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3060,20 +3064,26 @@
       <c r="F2">
         <v>60</v>
       </c>
+      <c r="G2">
+        <v>1.00095272064208E-2</v>
+      </c>
       <c r="H2">
         <v>3497</v>
       </c>
+      <c r="I2">
+        <v>3140</v>
+      </c>
       <c r="J2">
         <f>I2/H2</f>
-        <v>0</v>
+        <v>0.89791249642550752</v>
       </c>
       <c r="K2">
         <f>I2-'no constraints'!I2</f>
-        <v>-3128</v>
+        <v>12</v>
       </c>
       <c r="L2">
         <f>J2-'no constraints'!J2</f>
-        <v>-0.89448098370031459</v>
+        <v>3.4315127251929312E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3095,20 +3105,26 @@
       <c r="F3">
         <v>59</v>
       </c>
+      <c r="G3">
+        <v>4.0004253387451102E-3</v>
+      </c>
       <c r="H3">
         <v>3542</v>
       </c>
+      <c r="I3">
+        <v>3166</v>
+      </c>
       <c r="J3">
         <f t="shared" ref="J3:J16" si="0">I3/H3</f>
-        <v>0</v>
+        <v>0.89384528514963302</v>
       </c>
       <c r="K3">
         <f>I3-'no constraints'!I3</f>
-        <v>-3173</v>
+        <v>-7</v>
       </c>
       <c r="L3">
         <f>J3-'no constraints'!J3</f>
-        <v>-0.89582156973461324</v>
+        <v>-1.9762845849802257E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3130,20 +3146,26 @@
       <c r="F4">
         <v>61</v>
       </c>
+      <c r="G4">
+        <v>7.9782009124755807E-3</v>
+      </c>
       <c r="H4">
         <v>3579</v>
       </c>
+      <c r="I4">
+        <v>3131</v>
+      </c>
       <c r="J4">
         <f>I4/H4</f>
-        <v>0</v>
+        <v>0.87482537021514395</v>
       </c>
       <c r="K4">
         <f>I4-'no constraints'!I4</f>
-        <v>-3115</v>
+        <v>16</v>
       </c>
       <c r="L4">
         <f>J4-'no constraints'!J4</f>
-        <v>-0.87035484772282756</v>
+        <v>4.4705224923163867E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3165,20 +3187,26 @@
       <c r="F5">
         <v>59</v>
       </c>
+      <c r="G5">
+        <v>9.9725723266601493E-3</v>
+      </c>
       <c r="H5">
         <v>3539</v>
       </c>
+      <c r="I5">
+        <v>3149</v>
+      </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.88979937835546763</v>
       </c>
       <c r="K5">
         <f>I5-'no constraints'!I5</f>
-        <v>-3152</v>
+        <v>-3</v>
       </c>
       <c r="L5">
         <f>J5-'no constraints'!J5</f>
-        <v>-0.89064707544504096</v>
+        <v>-8.4769708957332934E-4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3200,20 +3228,26 @@
       <c r="F6">
         <v>51</v>
       </c>
+      <c r="G6">
+        <v>4.8692226409912101E-3</v>
+      </c>
       <c r="H6">
         <v>3700</v>
       </c>
+      <c r="I6">
+        <v>3314</v>
+      </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.89567567567567563</v>
       </c>
       <c r="K6">
         <f>I6-'no constraints'!I6</f>
-        <v>-3308</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <f>J6-'no constraints'!J6</f>
-        <v>-0.89405405405405403</v>
+        <v>1.6216216216216051E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3235,20 +3269,26 @@
       <c r="F7">
         <v>52</v>
       </c>
+      <c r="G7">
+        <v>3.9987564086914002E-3</v>
+      </c>
       <c r="H7">
         <v>3680</v>
       </c>
+      <c r="I7">
+        <v>3282</v>
+      </c>
       <c r="J7">
         <f>I7/H7</f>
-        <v>0</v>
+        <v>0.89184782608695656</v>
       </c>
       <c r="K7">
         <f>I7-'no constraints'!I7</f>
-        <v>-3266</v>
+        <v>16</v>
       </c>
       <c r="L7">
         <f>J7-'no constraints'!J7</f>
-        <v>-0.88749999999999996</v>
+        <v>4.3478260869566077E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3270,20 +3310,26 @@
       <c r="F8">
         <v>63</v>
       </c>
+      <c r="G8">
+        <v>5.9840679168701102E-3</v>
+      </c>
       <c r="H8">
         <v>3798</v>
       </c>
+      <c r="I8">
+        <v>3393</v>
+      </c>
       <c r="J8">
         <f>I8/H8</f>
-        <v>0</v>
+        <v>0.89336492890995256</v>
       </c>
       <c r="K8">
         <f>I8-'no constraints'!I8</f>
-        <v>-3379</v>
+        <v>14</v>
       </c>
       <c r="L8">
         <f>J8-'no constraints'!J8</f>
-        <v>-0.8896787783043707</v>
+        <v>3.6861506055818616E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3305,20 +3351,26 @@
       <c r="F9">
         <v>62</v>
       </c>
+      <c r="G9">
+        <v>7.9798698425292899E-3</v>
+      </c>
       <c r="H9">
         <v>3862</v>
       </c>
+      <c r="I9">
+        <v>3467</v>
+      </c>
       <c r="J9">
         <f>I9/H9</f>
-        <v>0</v>
+        <v>0.89772138788192646</v>
       </c>
       <c r="K9">
         <f>I9-'no constraints'!I9</f>
-        <v>-3449</v>
+        <v>18</v>
       </c>
       <c r="L9">
         <f>J9-'no constraints'!J9</f>
-        <v>-0.89306059036768515</v>
+        <v>4.6607975142413105E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3340,20 +3392,26 @@
       <c r="F10">
         <v>63</v>
       </c>
+      <c r="G10">
+        <v>1.00271701812744E-2</v>
+      </c>
       <c r="H10">
         <v>3794</v>
       </c>
+      <c r="I10">
+        <v>3403</v>
+      </c>
       <c r="J10">
         <f>I10/H10</f>
-        <v>0</v>
+        <v>0.89694254085397995</v>
       </c>
       <c r="K10">
         <f>I10-'no constraints'!I10</f>
-        <v>-3400</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <f>J10-'no constraints'!J10</f>
-        <v>-0.89615181866104376</v>
+        <v>7.9072219293618851E-4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3375,20 +3433,26 @@
       <c r="F11">
         <v>67</v>
       </c>
+      <c r="G11">
+        <v>7.9977512359619106E-3</v>
+      </c>
       <c r="H11">
         <v>4057</v>
       </c>
+      <c r="I11">
+        <v>3692</v>
+      </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.91003204338180921</v>
       </c>
       <c r="K11">
         <f>I11-'no constraints'!I11</f>
-        <v>-3660</v>
+        <v>32</v>
       </c>
       <c r="L11">
         <f>J11-'no constraints'!J11</f>
-        <v>-0.90214444170569386</v>
+        <v>7.8876016761153522E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3410,20 +3474,26 @@
       <c r="F12">
         <v>68</v>
       </c>
+      <c r="G12">
+        <v>7.0173740386962804E-3</v>
+      </c>
       <c r="H12">
         <v>4466</v>
       </c>
+      <c r="I12">
+        <v>4116</v>
+      </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.92163009404388718</v>
       </c>
       <c r="K12">
         <f>I12-'no constraints'!I12</f>
-        <v>-4056</v>
+        <v>60</v>
       </c>
       <c r="L12">
         <f>J12-'no constraints'!J12</f>
-        <v>-0.90819525302283921</v>
+        <v>1.3434841021047972E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3445,20 +3515,26 @@
       <c r="F13">
         <v>64</v>
       </c>
+      <c r="G13">
+        <v>5.9928894042968698E-3</v>
+      </c>
       <c r="H13">
         <v>4671</v>
       </c>
+      <c r="I13">
+        <v>4287</v>
+      </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.91779062299293512</v>
       </c>
       <c r="K13">
         <f>I13-'no constraints'!I13</f>
-        <v>-4271</v>
+        <v>16</v>
       </c>
       <c r="L13">
         <f>J13-'no constraints'!J13</f>
-        <v>-0.91436523228430744</v>
+        <v>3.4253907086276847E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3480,20 +3556,26 @@
       <c r="F14">
         <v>70</v>
       </c>
+      <c r="G14">
+        <v>1.09732151031494E-2</v>
+      </c>
       <c r="H14">
         <v>4813</v>
       </c>
+      <c r="I14">
+        <v>4433</v>
+      </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.92104716393102015</v>
       </c>
       <c r="K14">
         <f>I14-'no constraints'!I14</f>
-        <v>-4400</v>
+        <v>33</v>
       </c>
       <c r="L14">
         <f>J14-'no constraints'!J14</f>
-        <v>-0.914190733430293</v>
+        <v>6.8564305007271509E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3515,20 +3597,26 @@
       <c r="F15">
         <v>69</v>
       </c>
+      <c r="G15">
+        <v>6.0200691223144497E-3</v>
+      </c>
       <c r="H15">
         <v>4739</v>
       </c>
+      <c r="I15">
+        <v>4341</v>
+      </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.91601603713863688</v>
       </c>
       <c r="K15">
         <f>I15-'no constraints'!I15</f>
-        <v>-4333</v>
+        <v>8</v>
       </c>
       <c r="L15">
         <f>J15-'no constraints'!J15</f>
-        <v>-0.91432791728212703</v>
+        <v>1.688119856509851E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3550,20 +3638,26 @@
       <c r="F16">
         <v>67</v>
       </c>
+      <c r="G16">
+        <v>9.9749565124511701E-3</v>
+      </c>
       <c r="H16">
         <v>4558</v>
       </c>
+      <c r="I16">
+        <v>4173</v>
+      </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.91553312856516011</v>
       </c>
       <c r="K16">
         <f>I16-'no constraints'!I16</f>
-        <v>-4165</v>
+        <v>8</v>
       </c>
       <c r="L16">
         <f>J16-'no constraints'!J16</f>
-        <v>-0.91377797279508555</v>
+        <v>1.7551557700745679E-3</v>
       </c>
     </row>
   </sheetData>

--- a/brynmawr/fallAnalysis.xlsx
+++ b/brynmawr/fallAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\cs340-project\brynmawr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADBDD8B-0DEB-4023-801E-16E9781382DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1754F-7F28-4FF1-B5B0-B2507F5D9CBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="2730" windowWidth="17040" windowHeight="10800" firstSheet="2" activeTab="4" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
+    <workbookView xWindow="735" yWindow="2775" windowWidth="17040" windowHeight="10800" firstSheet="3" activeTab="5" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
   </bookViews>
   <sheets>
     <sheet name="no constraints" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="increasing room size" sheetId="3" r:id="rId3"/>
     <sheet name="limiting subject conflict" sheetId="4" r:id="rId4"/>
     <sheet name="level constraint" sheetId="5" r:id="rId5"/>
+    <sheet name="Level And Subject" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="16">
   <si>
     <t>Classes</t>
   </si>
@@ -77,6 +78,15 @@
   </si>
   <si>
     <t>Diff %Opt</t>
+  </si>
+  <si>
+    <t>a lot of classes were not assigned to a timeslot and room</t>
+  </si>
+  <si>
+    <t>Mean Diff Change:</t>
+  </si>
+  <si>
+    <t>Mean %Opt Change</t>
   </si>
 </sst>
 </file>
@@ -431,7 +441,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,10 +984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44F4F0E-97F0-448B-85BF-165CA56B88B0}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A18" sqref="A18:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,6 +1651,24 @@
         <v>-7.0645019745502413E-2</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(K2:K16)</f>
+        <v>-282.60000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(L2:L16)</f>
+        <v>-7.0261246908343136E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1651,7 +1679,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L16"/>
+      <selection activeCell="A18" sqref="A18:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2342,25 @@
         <v>8.7757788503728396E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(K2:K16)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(L2:L16)</f>
+        <v>6.4500293400775459E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2327,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52293D6E-ACFD-4E22-982B-246A4AD891D0}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,6 +3034,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(K2:K16)</f>
+        <v>22.733333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(L2:L16)</f>
+        <v>5.5423650504399609E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2995,10 +3059,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABFF373-15E8-4DD5-B038-F8F537CA4CBA}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,6 +3724,713 @@
         <v>1.7551557700745679E-3</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(K2:K16)</f>
+        <v>15.466666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(L2:L16)</f>
+        <v>3.6821807398263943E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1166FE0C-AED2-46C8-ACC6-002CDF0F2605}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>231</v>
+      </c>
+      <c r="C2">
+        <v>164</v>
+      </c>
+      <c r="D2">
+        <v>1112</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>1.56211853027343E-2</v>
+      </c>
+      <c r="H2">
+        <v>3497</v>
+      </c>
+      <c r="I2">
+        <v>3166</v>
+      </c>
+      <c r="J2">
+        <f>I2/H2</f>
+        <v>0.90534744066342576</v>
+      </c>
+      <c r="K2">
+        <f>I2-'no constraints'!I2</f>
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <f>J2-'no constraints'!J2</f>
+        <v>1.0866456963111171E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>222</v>
+      </c>
+      <c r="C3">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>1096</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>1.5620470046996999E-2</v>
+      </c>
+      <c r="H3">
+        <v>3542</v>
+      </c>
+      <c r="I3">
+        <v>3188</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J16" si="0">I3/H3</f>
+        <v>0.90005646527385663</v>
+      </c>
+      <c r="K3">
+        <f>I3-'no constraints'!I3</f>
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <f>J3-'no constraints'!J3</f>
+        <v>4.2348955392433885E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>239</v>
+      </c>
+      <c r="C4">
+        <v>159</v>
+      </c>
+      <c r="D4">
+        <v>1090</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <v>1.46722793579101E-3</v>
+      </c>
+      <c r="H4">
+        <v>3579</v>
+      </c>
+      <c r="I4">
+        <v>3134</v>
+      </c>
+      <c r="J4">
+        <f>I4/H4</f>
+        <v>0.87566359318245324</v>
+      </c>
+      <c r="K4">
+        <f>I4-'no constraints'!I4</f>
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <f>J4-'no constraints'!J4</f>
+        <v>5.3087454596256745E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>241</v>
+      </c>
+      <c r="C5">
+        <v>151</v>
+      </c>
+      <c r="D5">
+        <v>1104</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>1.5672206878662099E-2</v>
+      </c>
+      <c r="H5">
+        <v>3539</v>
+      </c>
+      <c r="I5">
+        <v>3177</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.897711217858152</v>
+      </c>
+      <c r="K5">
+        <f>I5-'no constraints'!I5</f>
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <f>J5-'no constraints'!J5</f>
+        <v>7.0641424131110409E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>265</v>
+      </c>
+      <c r="C6">
+        <v>163</v>
+      </c>
+      <c r="D6">
+        <v>1124</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>51</v>
+      </c>
+      <c r="G6">
+        <v>1.5622854232787999E-2</v>
+      </c>
+      <c r="H6">
+        <v>3700</v>
+      </c>
+      <c r="I6">
+        <v>3315</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.8959459459459459</v>
+      </c>
+      <c r="K6">
+        <f>I6-'no constraints'!I6</f>
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <f>J6-'no constraints'!J6</f>
+        <v>1.8918918918918726E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>255</v>
+      </c>
+      <c r="C7">
+        <v>156</v>
+      </c>
+      <c r="D7">
+        <v>1127</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>6.2916278839111302E-3</v>
+      </c>
+      <c r="H7">
+        <v>3680</v>
+      </c>
+      <c r="I7">
+        <v>3313</v>
+      </c>
+      <c r="J7">
+        <f>I7/H7</f>
+        <v>0.90027173913043479</v>
+      </c>
+      <c r="K7">
+        <f>I7-'no constraints'!I7</f>
+        <v>47</v>
+      </c>
+      <c r="L7">
+        <f>J7-'no constraints'!J7</f>
+        <v>1.2771739130434834E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>269</v>
+      </c>
+      <c r="C8">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <v>1167</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>63</v>
+      </c>
+      <c r="G8">
+        <v>9.6900463104247995E-3</v>
+      </c>
+      <c r="H8">
+        <v>3798</v>
+      </c>
+      <c r="I8">
+        <v>3391</v>
+      </c>
+      <c r="J8">
+        <f>I8/H8</f>
+        <v>0.89283833596629802</v>
+      </c>
+      <c r="K8">
+        <f>I8-'no constraints'!I8</f>
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <f>J8-'no constraints'!J8</f>
+        <v>3.1595576619273258E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>283</v>
+      </c>
+      <c r="C9">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>1148</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>5.99431991577148E-3</v>
+      </c>
+      <c r="H9">
+        <v>3862</v>
+      </c>
+      <c r="I9">
+        <v>3498</v>
+      </c>
+      <c r="J9">
+        <f>I9/H9</f>
+        <v>0.90574831693423097</v>
+      </c>
+      <c r="K9">
+        <f>I9-'no constraints'!I9</f>
+        <v>49</v>
+      </c>
+      <c r="L9">
+        <f>J9-'no constraints'!J9</f>
+        <v>1.2687726566545821E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>284</v>
+      </c>
+      <c r="C10">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>1213</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>8.0394744873046806E-3</v>
+      </c>
+      <c r="H10">
+        <v>3794</v>
+      </c>
+      <c r="I10">
+        <v>3388</v>
+      </c>
+      <c r="J10">
+        <f>I10/H10</f>
+        <v>0.8929889298892989</v>
+      </c>
+      <c r="K10">
+        <f>I10-'no constraints'!I10</f>
+        <v>-12</v>
+      </c>
+      <c r="L10">
+        <f>J10-'no constraints'!J10</f>
+        <v>-3.162888771744865E-3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>264</v>
+      </c>
+      <c r="C11">
+        <v>164</v>
+      </c>
+      <c r="D11">
+        <v>1352</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>67</v>
+      </c>
+      <c r="G11">
+        <v>9.8795890808105399E-3</v>
+      </c>
+      <c r="H11">
+        <v>4057</v>
+      </c>
+      <c r="I11">
+        <v>3701</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.91225043135321671</v>
+      </c>
+      <c r="K11">
+        <f>I11-'no constraints'!I11</f>
+        <v>41</v>
+      </c>
+      <c r="L11">
+        <f>J11-'no constraints'!J11</f>
+        <v>1.0105989647522851E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>288</v>
+      </c>
+      <c r="C12">
+        <v>174</v>
+      </c>
+      <c r="D12">
+        <v>1475</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>68</v>
+      </c>
+      <c r="G12">
+        <v>8.5601806640625E-3</v>
+      </c>
+      <c r="H12">
+        <v>4466</v>
+      </c>
+      <c r="I12">
+        <v>4110</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.92028660994178235</v>
+      </c>
+      <c r="K12">
+        <f>I12-'no constraints'!I12</f>
+        <v>54</v>
+      </c>
+      <c r="L12">
+        <f>J12-'no constraints'!J12</f>
+        <v>1.2091356918943141E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>280</v>
+      </c>
+      <c r="C13">
+        <v>172</v>
+      </c>
+      <c r="D13">
+        <v>1600</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>5.0592422485351502E-3</v>
+      </c>
+      <c r="H13">
+        <v>4671</v>
+      </c>
+      <c r="I13">
+        <v>4310</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.9227146221365875</v>
+      </c>
+      <c r="K13">
+        <f>I13-'no constraints'!I13</f>
+        <v>39</v>
+      </c>
+      <c r="L13">
+        <f>J13-'no constraints'!J13</f>
+        <v>8.3493898522800647E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>293</v>
+      </c>
+      <c r="C14">
+        <v>175</v>
+      </c>
+      <c r="D14">
+        <v>1659</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>1.40731334686279E-2</v>
+      </c>
+      <c r="H14">
+        <v>4813</v>
+      </c>
+      <c r="I14">
+        <v>4424</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.91917722833991278</v>
+      </c>
+      <c r="K14">
+        <f>I14-'no constraints'!I14</f>
+        <v>24</v>
+      </c>
+      <c r="L14">
+        <f>J14-'no constraints'!J14</f>
+        <v>4.9864949096197764E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>320</v>
+      </c>
+      <c r="C15">
+        <v>179</v>
+      </c>
+      <c r="D15">
+        <v>1644</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>69</v>
+      </c>
+      <c r="G15">
+        <v>3.0181407928466701E-3</v>
+      </c>
+      <c r="H15">
+        <v>4739</v>
+      </c>
+      <c r="I15">
+        <v>4382</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.92466765140324958</v>
+      </c>
+      <c r="K15">
+        <f>I15-'no constraints'!I15</f>
+        <v>49</v>
+      </c>
+      <c r="L15">
+        <f>J15-'no constraints'!J15</f>
+        <v>1.0339734121122546E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>280</v>
+      </c>
+      <c r="C16">
+        <v>183</v>
+      </c>
+      <c r="D16">
+        <v>1635</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>67</v>
+      </c>
+      <c r="G16">
+        <v>9.9279880523681606E-3</v>
+      </c>
+      <c r="H16">
+        <v>4558</v>
+      </c>
+      <c r="I16">
+        <v>4189</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.91904344010530936</v>
+      </c>
+      <c r="K16">
+        <f>I16-'no constraints'!I16</f>
+        <v>24</v>
+      </c>
+      <c r="L16">
+        <f>J16-'no constraints'!J16</f>
+        <v>5.2654673102238148E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(K2:K16)</f>
+        <v>28.733333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(L2:L16)</f>
+        <v>7.0640466409238973E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/brynmawr/fallAnalysis.xlsx
+++ b/brynmawr/fallAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\cs340-project\brynmawr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1754F-7F28-4FF1-B5B0-B2507F5D9CBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9641358A-43FB-49A9-B8D0-BB2EBC76564B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="2775" windowWidth="17040" windowHeight="10800" firstSheet="3" activeTab="5" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
+    <workbookView xWindow="300" yWindow="1320" windowWidth="17805" windowHeight="12480" firstSheet="3" activeTab="5" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
   </bookViews>
   <sheets>
     <sheet name="no constraints" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="18">
   <si>
     <t>Classes</t>
   </si>
@@ -88,12 +88,25 @@
   <si>
     <t>Mean %Opt Change</t>
   </si>
+  <si>
+    <t>Mean Opt:</t>
+  </si>
+  <si>
+    <t>Std Dev:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,14 +132,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,14 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9566DA-555C-428D-8820-0761B1BD8B75}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A5" zoomScale="126" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
@@ -977,6 +994,24 @@
         <v>0.91377797279508555</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(J2:J16)</f>
+        <v>0.89858341790068663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <f>STDEV(J2:J16)</f>
+        <v>1.2592077042287804E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -984,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44F4F0E-97F0-448B-85BF-165CA56B88B0}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C20"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,6 +1704,24 @@
         <v>-7.0261246908343136E-2</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(J5:J19)</f>
+        <v>0.83333427178102781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <f>STDEV(J5:J19)</f>
+        <v>8.1984928037370994E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1676,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFABE1D-3621-4D95-B00E-DC62BD93ED73}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C20"/>
+    <sheetView topLeftCell="A7" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,6 +2418,24 @@
         <v>10</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(J5:J19)</f>
+        <v>0.90189496446323336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <f>STDEV(J5:J19)</f>
+        <v>1.0714060683959577E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2373,10 +2444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52293D6E-ACFD-4E22-982B-246A4AD891D0}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A11" zoomScale="140" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,7 +2510,7 @@
         <v>60</v>
       </c>
       <c r="G2">
-        <v>7.9793930053710903E-3</v>
+        <v>4.0137767791748004E-3</v>
       </c>
       <c r="H2">
         <v>3497</v>
@@ -2480,7 +2551,7 @@
         <v>59</v>
       </c>
       <c r="G3">
-        <v>4.9862861633300703E-3</v>
+        <v>3.0179023742675699E-3</v>
       </c>
       <c r="H3">
         <v>3542</v>
@@ -2521,7 +2592,7 @@
         <v>61</v>
       </c>
       <c r="G4">
-        <v>4.0507316589355399E-3</v>
+        <v>3.0000209808349601E-3</v>
       </c>
       <c r="H4">
         <v>3579</v>
@@ -2562,7 +2633,7 @@
         <v>59</v>
       </c>
       <c r="G5">
-        <v>8.0018043518066406E-3</v>
+        <v>4.0383338928222604E-3</v>
       </c>
       <c r="H5">
         <v>3539</v>
@@ -2603,7 +2674,7 @@
         <v>51</v>
       </c>
       <c r="G6">
-        <v>4.9865245819091797E-3</v>
+        <v>3.9987564086914002E-3</v>
       </c>
       <c r="H6">
         <v>3700</v>
@@ -2644,7 +2715,7 @@
         <v>52</v>
       </c>
       <c r="G7">
-        <v>6.0017108917236302E-3</v>
+        <v>3.9985179901123004E-3</v>
       </c>
       <c r="H7">
         <v>3680</v>
@@ -2685,7 +2756,7 @@
         <v>63</v>
       </c>
       <c r="G8">
-        <v>8.0003738403320295E-3</v>
+        <v>4.0392875671386701E-3</v>
       </c>
       <c r="H8">
         <v>3798</v>
@@ -2726,25 +2797,25 @@
         <v>62</v>
       </c>
       <c r="G9">
-        <v>6.9813728332519497E-3</v>
+        <v>7.9107284545898403E-3</v>
       </c>
       <c r="H9">
         <v>3862</v>
       </c>
       <c r="I9">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="J9">
         <f>I9/H9</f>
-        <v>0.90108751941998966</v>
+        <v>0.90186431900569652</v>
       </c>
       <c r="K9">
         <f>I9-'no constraints'!I9</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L9">
         <f>J9-'no constraints'!J9</f>
-        <v>8.02692905230451E-3</v>
+        <v>8.8037286380113766E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2767,25 +2838,25 @@
         <v>63</v>
       </c>
       <c r="G10">
-        <v>7.9994201660156198E-3</v>
+        <v>1.20086669921875E-2</v>
       </c>
       <c r="H10">
         <v>3794</v>
       </c>
       <c r="I10">
-        <v>3410</v>
+        <v>3422</v>
       </c>
       <c r="J10">
         <f>I10/H10</f>
-        <v>0.89878755930416443</v>
+        <v>0.90195044807590929</v>
       </c>
       <c r="K10">
         <f>I10-'no constraints'!I10</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L10">
         <f>J10-'no constraints'!J10</f>
-        <v>2.6357406431206654E-3</v>
+        <v>5.7986294148655304E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2808,7 +2879,7 @@
         <v>67</v>
       </c>
       <c r="G11">
-        <v>7.9998970031738195E-3</v>
+        <v>3.9620399475097604E-3</v>
       </c>
       <c r="H11">
         <v>4057</v>
@@ -2849,7 +2920,7 @@
         <v>68</v>
       </c>
       <c r="G12">
-        <v>5.9874057769775304E-3</v>
+        <v>7.9648494720458898E-3</v>
       </c>
       <c r="H12">
         <v>4466</v>
@@ -2890,25 +2961,25 @@
         <v>64</v>
       </c>
       <c r="G13">
-        <v>7.9998970031738195E-3</v>
+        <v>4.0535926818847604E-3</v>
       </c>
       <c r="H13">
         <v>4671</v>
       </c>
       <c r="I13">
-        <v>4312</v>
+        <v>4315</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0.92314279597516591</v>
+        <v>0.92378505673303357</v>
       </c>
       <c r="K13">
         <f>I13-'no constraints'!I13</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L13">
         <f>J13-'no constraints'!J13</f>
-        <v>8.7775636908584698E-3</v>
+        <v>9.4198244487261329E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2931,25 +3002,25 @@
         <v>70</v>
       </c>
       <c r="G14">
-        <v>8.0018043518066406E-3</v>
+        <v>3.7569999694824201E-3</v>
       </c>
       <c r="H14">
         <v>4813</v>
       </c>
       <c r="I14">
-        <v>4417</v>
+        <v>4431</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0.91772283399127363</v>
+        <v>0.92063162268855181</v>
       </c>
       <c r="K14">
         <f>I14-'no constraints'!I14</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L14">
         <f>J14-'no constraints'!J14</f>
-        <v>3.5321005609806333E-3</v>
+        <v>6.4408892582588084E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2972,25 +3043,25 @@
         <v>69</v>
       </c>
       <c r="G15">
-        <v>1.2001752853393499E-2</v>
+        <v>5.9950351715087804E-3</v>
       </c>
       <c r="H15">
         <v>4739</v>
       </c>
       <c r="I15">
-        <v>4385</v>
+        <v>4389</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0.92530069634944079</v>
+        <v>0.92614475627769577</v>
       </c>
       <c r="K15">
         <f>I15-'no constraints'!I15</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L15">
         <f>J15-'no constraints'!J15</f>
-        <v>1.0972779067313754E-2</v>
+        <v>1.1816838995568735E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3013,25 +3084,25 @@
         <v>67</v>
       </c>
       <c r="G16">
-        <v>6.9813728332519497E-3</v>
+        <v>3.9992332458495998E-3</v>
       </c>
       <c r="H16">
         <v>4558</v>
       </c>
       <c r="I16">
-        <v>4165</v>
+        <v>4172</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0.91377797279508555</v>
+        <v>0.91531373409390082</v>
       </c>
       <c r="K16">
         <f>I16-'no constraints'!I16</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L16">
         <f>J16-'no constraints'!J16</f>
-        <v>0</v>
+        <v>1.5357612988152747E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3040,7 +3111,7 @@
       </c>
       <c r="C18">
         <f>AVERAGE(K2:K16)</f>
-        <v>22.733333333333334</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3049,7 +3120,25 @@
       </c>
       <c r="C20">
         <f>AVERAGE(L2:L16)</f>
-        <v>5.5423650504399609E-3</v>
+        <v>6.200402319751149E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(J5:J19)</f>
+        <v>0.90883259218656332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <f>STDEV(J5:J19)</f>
+        <v>1.1548167062662096E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3059,10 +3148,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABFF373-15E8-4DD5-B038-F8F537CA4CBA}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,6 +3831,24 @@
         <v>3.6821807398263943E-3</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(J5:J19)</f>
+        <v>0.90561673565145051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <f>STDEV(J5:J19)</f>
+        <v>1.2413284069078845E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3749,10 +3856,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1166FE0C-AED2-46C8-ACC6-002CDF0F2605}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="128" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3815,7 +3922,7 @@
         <v>60</v>
       </c>
       <c r="G2">
-        <v>1.56211853027343E-2</v>
+        <v>3.9680004119873004E-3</v>
       </c>
       <c r="H2">
         <v>3497</v>
@@ -3856,7 +3963,7 @@
         <v>59</v>
       </c>
       <c r="G3">
-        <v>1.5620470046996999E-2</v>
+        <v>5.9716701507568299E-3</v>
       </c>
       <c r="H3">
         <v>3542</v>
@@ -3897,7 +4004,7 @@
         <v>61</v>
       </c>
       <c r="G4">
-        <v>1.46722793579101E-3</v>
+        <v>4.0001869201660104E-3</v>
       </c>
       <c r="H4">
         <v>3579</v>
@@ -3938,7 +4045,7 @@
         <v>59</v>
       </c>
       <c r="G5">
-        <v>1.5672206878662099E-2</v>
+        <v>4.0109157562255799E-3</v>
       </c>
       <c r="H5">
         <v>3539</v>
@@ -3979,7 +4086,7 @@
         <v>51</v>
       </c>
       <c r="G6">
-        <v>1.5622854232787999E-2</v>
+        <v>3.9961338043212804E-3</v>
       </c>
       <c r="H6">
         <v>3700</v>
@@ -4020,7 +4127,7 @@
         <v>52</v>
       </c>
       <c r="G7">
-        <v>6.2916278839111302E-3</v>
+        <v>6.98089599609375E-3</v>
       </c>
       <c r="H7">
         <v>3680</v>
@@ -4061,7 +4168,7 @@
         <v>63</v>
       </c>
       <c r="G8">
-        <v>9.6900463104247995E-3</v>
+        <v>1.20012760162353E-2</v>
       </c>
       <c r="H8">
         <v>3798</v>
@@ -4102,25 +4209,25 @@
         <v>62</v>
       </c>
       <c r="G9">
-        <v>5.99431991577148E-3</v>
+        <v>9.2251300811767491E-3</v>
       </c>
       <c r="H9">
         <v>3862</v>
       </c>
       <c r="I9">
-        <v>3498</v>
+        <v>3501</v>
       </c>
       <c r="J9">
         <f>I9/H9</f>
-        <v>0.90574831693423097</v>
+        <v>0.90652511651993783</v>
       </c>
       <c r="K9">
         <f>I9-'no constraints'!I9</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L9">
         <f>J9-'no constraints'!J9</f>
-        <v>1.2687726566545821E-2</v>
+        <v>1.3464526152252687E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4143,25 +4250,25 @@
         <v>63</v>
       </c>
       <c r="G10">
-        <v>8.0394744873046806E-3</v>
+        <v>1.6046762466430602E-2</v>
       </c>
       <c r="H10">
         <v>3794</v>
       </c>
       <c r="I10">
-        <v>3388</v>
+        <v>3399</v>
       </c>
       <c r="J10">
         <f>I10/H10</f>
-        <v>0.8929889298892989</v>
+        <v>0.89588824459673166</v>
       </c>
       <c r="K10">
         <f>I10-'no constraints'!I10</f>
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="L10">
         <f>J10-'no constraints'!J10</f>
-        <v>-3.162888771744865E-3</v>
+        <v>-2.6357406431209984E-4</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
@@ -4187,7 +4294,7 @@
         <v>67</v>
       </c>
       <c r="G11">
-        <v>9.8795890808105399E-3</v>
+        <v>6.0522556304931597E-3</v>
       </c>
       <c r="H11">
         <v>4057</v>
@@ -4228,7 +4335,7 @@
         <v>68</v>
       </c>
       <c r="G12">
-        <v>8.5601806640625E-3</v>
+        <v>3.9987564086914002E-3</v>
       </c>
       <c r="H12">
         <v>4466</v>
@@ -4269,25 +4376,25 @@
         <v>64</v>
       </c>
       <c r="G13">
-        <v>5.0592422485351502E-3</v>
+        <v>4.0440559387206997E-3</v>
       </c>
       <c r="H13">
         <v>4671</v>
       </c>
       <c r="I13">
-        <v>4310</v>
+        <v>4312</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0.9227146221365875</v>
+        <v>0.92314279597516591</v>
       </c>
       <c r="K13">
         <f>I13-'no constraints'!I13</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L13">
         <f>J13-'no constraints'!J13</f>
-        <v>8.3493898522800647E-3</v>
+        <v>8.7775636908584698E-3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4310,25 +4417,25 @@
         <v>70</v>
       </c>
       <c r="G14">
-        <v>1.40731334686279E-2</v>
+        <v>7.8392028808593698E-3</v>
       </c>
       <c r="H14">
         <v>4813</v>
       </c>
       <c r="I14">
-        <v>4424</v>
+        <v>4446</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0.91917722833991278</v>
+        <v>0.92374818200706421</v>
       </c>
       <c r="K14">
         <f>I14-'no constraints'!I14</f>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="L14">
         <f>J14-'no constraints'!J14</f>
-        <v>4.9864949096197764E-3</v>
+        <v>9.5574485767712103E-3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4351,25 +4458,25 @@
         <v>69</v>
       </c>
       <c r="G15">
-        <v>3.0181407928466701E-3</v>
+        <v>7.9660415649413993E-3</v>
       </c>
       <c r="H15">
         <v>4739</v>
       </c>
       <c r="I15">
-        <v>4382</v>
+        <v>4392</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0.92466765140324958</v>
+        <v>0.92677780122388687</v>
       </c>
       <c r="K15">
         <f>I15-'no constraints'!I15</f>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L15">
         <f>J15-'no constraints'!J15</f>
-        <v>1.0339734121122546E-2</v>
+        <v>1.2449883941759832E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4392,25 +4499,25 @@
         <v>67</v>
       </c>
       <c r="G16">
-        <v>9.9279880523681606E-3</v>
+        <v>1.02002620697021E-2</v>
       </c>
       <c r="H16">
         <v>4558</v>
       </c>
       <c r="I16">
-        <v>4189</v>
+        <v>4192</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0.91904344010530936</v>
+        <v>0.91970162351908735</v>
       </c>
       <c r="K16">
         <f>I16-'no constraints'!I16</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L16">
         <f>J16-'no constraints'!J16</f>
-        <v>5.2654673102238148E-3</v>
+        <v>5.9236507240018055E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4419,7 +4526,7 @@
       </c>
       <c r="C18">
         <f>AVERAGE(K2:K16)</f>
-        <v>28.733333333333334</v>
+        <v>32.133333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4428,7 +4535,25 @@
       </c>
       <c r="C20">
         <f>AVERAGE(L2:L16)</f>
-        <v>7.0640466409238973E-3</v>
+        <v>7.8269516431428796E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(J5:J19)</f>
+        <v>0.90959067033647523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <f>STDEV(J5:J19)</f>
+        <v>1.2774757471616806E-2</v>
       </c>
     </row>
   </sheetData>

--- a/brynmawr/fallAnalysis.xlsx
+++ b/brynmawr/fallAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\cs340-project\brynmawr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9641358A-43FB-49A9-B8D0-BB2EBC76564B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67680408-4C68-4013-BD69-2E76928303FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1320" windowWidth="17805" windowHeight="12480" firstSheet="3" activeTab="5" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
   </bookViews>
   <sheets>
     <sheet name="no constraints" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
   <si>
     <t>Classes</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Std Dev:</t>
+  </si>
+  <si>
+    <t>Optimality</t>
+  </si>
+  <si>
+    <t>Diff Opt</t>
   </si>
 </sst>
 </file>
@@ -456,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9566DA-555C-428D-8820-0761B1BD8B75}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="126" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -507,7 +513,7 @@
         <v>231</v>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>1112</v>
@@ -540,7 +546,7 @@
         <v>222</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>1096</v>
@@ -573,7 +579,7 @@
         <v>239</v>
       </c>
       <c r="C4">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D4">
         <v>1090</v>
@@ -606,7 +612,7 @@
         <v>241</v>
       </c>
       <c r="C5">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>1104</v>
@@ -639,7 +645,7 @@
         <v>265</v>
       </c>
       <c r="C6">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>1124</v>
@@ -672,7 +678,7 @@
         <v>255</v>
       </c>
       <c r="C7">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>1127</v>
@@ -705,7 +711,7 @@
         <v>269</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D8">
         <v>1167</v>
@@ -738,7 +744,7 @@
         <v>283</v>
       </c>
       <c r="C9">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D9">
         <v>1148</v>
@@ -771,7 +777,7 @@
         <v>284</v>
       </c>
       <c r="C10">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D10">
         <v>1213</v>
@@ -804,7 +810,7 @@
         <v>264</v>
       </c>
       <c r="C11">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D11">
         <v>1352</v>
@@ -837,7 +843,7 @@
         <v>288</v>
       </c>
       <c r="C12">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D12">
         <v>1475</v>
@@ -870,7 +876,7 @@
         <v>280</v>
       </c>
       <c r="C13">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D13">
         <v>1600</v>
@@ -903,7 +909,7 @@
         <v>293</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D14">
         <v>1659</v>
@@ -936,7 +942,7 @@
         <v>320</v>
       </c>
       <c r="C15">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D15">
         <v>1644</v>
@@ -969,7 +975,7 @@
         <v>280</v>
       </c>
       <c r="C16">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D16">
         <v>1635</v>
@@ -1022,7 +1028,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -1079,7 +1085,7 @@
         <v>231</v>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>1112</v>
@@ -1120,7 +1126,7 @@
         <v>222</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>1096</v>
@@ -1161,7 +1167,7 @@
         <v>239</v>
       </c>
       <c r="C4">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D4">
         <v>1090</v>
@@ -1202,7 +1208,7 @@
         <v>241</v>
       </c>
       <c r="C5">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>1104</v>
@@ -1243,7 +1249,7 @@
         <v>265</v>
       </c>
       <c r="C6">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>1124</v>
@@ -1284,7 +1290,7 @@
         <v>255</v>
       </c>
       <c r="C7">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>1127</v>
@@ -1325,7 +1331,7 @@
         <v>269</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D8">
         <v>1167</v>
@@ -1366,7 +1372,7 @@
         <v>283</v>
       </c>
       <c r="C9">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D9">
         <v>1148</v>
@@ -1407,7 +1413,7 @@
         <v>284</v>
       </c>
       <c r="C10">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D10">
         <v>1213</v>
@@ -1448,7 +1454,7 @@
         <v>264</v>
       </c>
       <c r="C11">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D11">
         <v>1352</v>
@@ -1489,7 +1495,7 @@
         <v>288</v>
       </c>
       <c r="C12">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D12">
         <v>1475</v>
@@ -1530,7 +1536,7 @@
         <v>280</v>
       </c>
       <c r="C13">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D13">
         <v>1600</v>
@@ -1571,7 +1577,7 @@
         <v>293</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D14">
         <v>1659</v>
@@ -1612,7 +1618,7 @@
         <v>320</v>
       </c>
       <c r="C15">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D15">
         <v>1644</v>
@@ -1653,7 +1659,7 @@
         <v>280</v>
       </c>
       <c r="C16">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D16">
         <v>1635</v>
@@ -1731,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFABE1D-3621-4D95-B00E-DC62BD93ED73}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,7 +1794,7 @@
         <v>231</v>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>1112</v>
@@ -1829,7 +1835,7 @@
         <v>222</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>1096</v>
@@ -1870,7 +1876,7 @@
         <v>239</v>
       </c>
       <c r="C4">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D4">
         <v>1090</v>
@@ -1911,7 +1917,7 @@
         <v>241</v>
       </c>
       <c r="C5">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>1104</v>
@@ -1952,7 +1958,7 @@
         <v>265</v>
       </c>
       <c r="C6">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>1124</v>
@@ -1993,7 +1999,7 @@
         <v>255</v>
       </c>
       <c r="C7">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>1127</v>
@@ -2034,7 +2040,7 @@
         <v>269</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D8">
         <v>1167</v>
@@ -2075,7 +2081,7 @@
         <v>283</v>
       </c>
       <c r="C9">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D9">
         <v>1148</v>
@@ -2116,7 +2122,7 @@
         <v>284</v>
       </c>
       <c r="C10">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D10">
         <v>1213</v>
@@ -2157,7 +2163,7 @@
         <v>264</v>
       </c>
       <c r="C11">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D11">
         <v>1352</v>
@@ -2198,7 +2204,7 @@
         <v>288</v>
       </c>
       <c r="C12">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D12">
         <v>1475</v>
@@ -2239,7 +2245,7 @@
         <v>280</v>
       </c>
       <c r="C13">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D13">
         <v>1600</v>
@@ -2280,7 +2286,7 @@
         <v>293</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D14">
         <v>1659</v>
@@ -2321,7 +2327,7 @@
         <v>320</v>
       </c>
       <c r="C15">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D15">
         <v>1644</v>
@@ -2362,7 +2368,7 @@
         <v>280</v>
       </c>
       <c r="C16">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D16">
         <v>1635</v>
@@ -2446,11 +2452,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52293D6E-ACFD-4E22-982B-246A4AD891D0}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="140" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2481,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -2498,7 +2508,7 @@
         <v>231</v>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>1112</v>
@@ -2539,7 +2549,7 @@
         <v>222</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>1096</v>
@@ -2580,7 +2590,7 @@
         <v>239</v>
       </c>
       <c r="C4">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D4">
         <v>1090</v>
@@ -2621,7 +2631,7 @@
         <v>241</v>
       </c>
       <c r="C5">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>1104</v>
@@ -2662,7 +2672,7 @@
         <v>265</v>
       </c>
       <c r="C6">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>1124</v>
@@ -2703,7 +2713,7 @@
         <v>255</v>
       </c>
       <c r="C7">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>1127</v>
@@ -2744,7 +2754,7 @@
         <v>269</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D8">
         <v>1167</v>
@@ -2785,7 +2795,7 @@
         <v>283</v>
       </c>
       <c r="C9">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D9">
         <v>1148</v>
@@ -2826,7 +2836,7 @@
         <v>284</v>
       </c>
       <c r="C10">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D10">
         <v>1213</v>
@@ -2867,7 +2877,7 @@
         <v>264</v>
       </c>
       <c r="C11">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D11">
         <v>1352</v>
@@ -2908,7 +2918,7 @@
         <v>288</v>
       </c>
       <c r="C12">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D12">
         <v>1475</v>
@@ -2949,7 +2959,7 @@
         <v>280</v>
       </c>
       <c r="C13">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D13">
         <v>1600</v>
@@ -2990,7 +3000,7 @@
         <v>293</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D14">
         <v>1659</v>
@@ -3031,7 +3041,7 @@
         <v>320</v>
       </c>
       <c r="C15">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D15">
         <v>1644</v>
@@ -3072,7 +3082,7 @@
         <v>280</v>
       </c>
       <c r="C16">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D16">
         <v>1635</v>
@@ -3151,12 +3161,13 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3189,7 +3200,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -3206,7 +3217,7 @@
         <v>231</v>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>1112</v>
@@ -3247,7 +3258,7 @@
         <v>222</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>1096</v>
@@ -3288,7 +3299,7 @@
         <v>239</v>
       </c>
       <c r="C4">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D4">
         <v>1090</v>
@@ -3329,7 +3340,7 @@
         <v>241</v>
       </c>
       <c r="C5">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>1104</v>
@@ -3370,7 +3381,7 @@
         <v>265</v>
       </c>
       <c r="C6">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>1124</v>
@@ -3411,7 +3422,7 @@
         <v>255</v>
       </c>
       <c r="C7">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>1127</v>
@@ -3452,7 +3463,7 @@
         <v>269</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D8">
         <v>1167</v>
@@ -3493,7 +3504,7 @@
         <v>283</v>
       </c>
       <c r="C9">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D9">
         <v>1148</v>
@@ -3534,7 +3545,7 @@
         <v>284</v>
       </c>
       <c r="C10">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D10">
         <v>1213</v>
@@ -3575,7 +3586,7 @@
         <v>264</v>
       </c>
       <c r="C11">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D11">
         <v>1352</v>
@@ -3616,7 +3627,7 @@
         <v>288</v>
       </c>
       <c r="C12">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D12">
         <v>1475</v>
@@ -3657,7 +3668,7 @@
         <v>280</v>
       </c>
       <c r="C13">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D13">
         <v>1600</v>
@@ -3698,7 +3709,7 @@
         <v>293</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D14">
         <v>1659</v>
@@ -3739,7 +3750,7 @@
         <v>320</v>
       </c>
       <c r="C15">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D15">
         <v>1644</v>
@@ -3780,7 +3791,7 @@
         <v>280</v>
       </c>
       <c r="C16">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D16">
         <v>1635</v>
@@ -3858,11 +3869,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1166FE0C-AED2-46C8-ACC6-002CDF0F2605}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="128" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3893,13 +3908,13 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3910,7 +3925,7 @@
         <v>231</v>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>1112</v>
@@ -3951,7 +3966,7 @@
         <v>222</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>1096</v>
@@ -3992,7 +4007,7 @@
         <v>239</v>
       </c>
       <c r="C4">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D4">
         <v>1090</v>
@@ -4033,7 +4048,7 @@
         <v>241</v>
       </c>
       <c r="C5">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>1104</v>
@@ -4074,7 +4089,7 @@
         <v>265</v>
       </c>
       <c r="C6">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>1124</v>
@@ -4115,7 +4130,7 @@
         <v>255</v>
       </c>
       <c r="C7">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>1127</v>
@@ -4156,7 +4171,7 @@
         <v>269</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D8">
         <v>1167</v>
@@ -4197,7 +4212,7 @@
         <v>283</v>
       </c>
       <c r="C9">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D9">
         <v>1148</v>
@@ -4238,7 +4253,7 @@
         <v>284</v>
       </c>
       <c r="C10">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D10">
         <v>1213</v>
@@ -4282,7 +4297,7 @@
         <v>264</v>
       </c>
       <c r="C11">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D11">
         <v>1352</v>
@@ -4323,7 +4338,7 @@
         <v>288</v>
       </c>
       <c r="C12">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D12">
         <v>1475</v>
@@ -4364,7 +4379,7 @@
         <v>280</v>
       </c>
       <c r="C13">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D13">
         <v>1600</v>
@@ -4405,7 +4420,7 @@
         <v>293</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D14">
         <v>1659</v>
@@ -4446,7 +4461,7 @@
         <v>320</v>
       </c>
       <c r="C15">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D15">
         <v>1644</v>
@@ -4487,7 +4502,7 @@
         <v>280</v>
       </c>
       <c r="C16">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D16">
         <v>1635</v>

--- a/brynmawr/fallAnalysis.xlsx
+++ b/brynmawr/fallAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\cs340-project\brynmawr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67680408-4C68-4013-BD69-2E76928303FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EBE971-DA15-4B1E-BAD0-3AA6502EAA4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
   </bookViews>
   <sheets>
     <sheet name="no constraints" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="20">
   <si>
     <t>Classes</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>% Optimality</t>
-  </si>
-  <si>
     <t>Profs</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>Diff Exp</t>
-  </si>
-  <si>
-    <t>Diff %Opt</t>
   </si>
   <si>
     <t>a lot of classes were not assigned to a timeslot and room</t>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>Diff Opt</t>
+  </si>
+  <si>
+    <t>Max:</t>
+  </si>
+  <si>
+    <t>Min:</t>
   </si>
 </sst>
 </file>
@@ -475,13 +475,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <f>AVERAGE(J2:J16)</f>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
         <f>STDEV(J2:J16)</f>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,13 +1041,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1068,13 +1068,13 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <f>AVERAGE(K2:K16)</f>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <f>AVERAGE(L2:L16)</f>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <f>AVERAGE(J5:J19)</f>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
         <f>STDEV(J5:J19)</f>
@@ -1738,7 +1738,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,13 +1750,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1777,13 +1777,13 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2403,7 +2403,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <f>AVERAGE(K2:K16)</f>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <f>AVERAGE(L2:L16)</f>
@@ -2421,12 +2421,12 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <f>AVERAGE(J5:J19)</f>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
         <f>STDEV(J5:J19)</f>
@@ -2452,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52293D6E-ACFD-4E22-982B-246A4AD891D0}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,13 +2464,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2491,13 +2491,13 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <f>AVERAGE(K2:K16)</f>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <f>AVERAGE(L2:L16)</f>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <f>AVERAGE(J5:J19)</f>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
         <f>STDEV(J5:J19)</f>
@@ -3158,10 +3158,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABFF373-15E8-4DD5-B038-F8F537CA4CBA}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,15 +3171,15 @@
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3200,16 +3200,23 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O1">
+        <f>MAX(L2:L16)</f>
+        <v>1.3434841021047972E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -3249,8 +3256,15 @@
         <f>J2-'no constraints'!J2</f>
         <v>3.4315127251929312E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <f>MIN(L2:L16)</f>
+        <v>-1.9762845849802257E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -3291,7 +3305,7 @@
         <v>-1.9762845849802257E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -3332,7 +3346,7 @@
         <v>4.4705224923163867E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -3373,7 +3387,7 @@
         <v>-8.4769708957332934E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -3414,7 +3428,7 @@
         <v>1.6216216216216051E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -3455,7 +3469,7 @@
         <v>4.3478260869566077E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -3496,7 +3510,7 @@
         <v>3.6861506055818616E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -3537,7 +3551,7 @@
         <v>4.6607975142413105E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -3578,7 +3592,7 @@
         <v>7.9072219293618851E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -3619,7 +3633,7 @@
         <v>7.8876016761153522E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -3660,7 +3674,7 @@
         <v>1.3434841021047972E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -3701,7 +3715,7 @@
         <v>3.4253907086276847E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -3742,7 +3756,7 @@
         <v>6.8564305007271509E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -3783,7 +3797,7 @@
         <v>1.688119856509851E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -3826,7 +3840,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <f>AVERAGE(K2:K16)</f>
@@ -3835,7 +3849,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <f>AVERAGE(L2:L16)</f>
@@ -3844,7 +3858,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <f>AVERAGE(J5:J19)</f>
@@ -3853,7 +3867,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
         <f>STDEV(J5:J19)</f>
@@ -3869,7 +3883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1166FE0C-AED2-46C8-ACC6-002CDF0F2605}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
+    <sheetView zoomScale="128" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -3881,13 +3895,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3908,13 +3922,13 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4286,7 +4300,7 @@
         <v>-2.6357406431209984E-4</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4537,7 +4551,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <f>AVERAGE(K2:K16)</f>
@@ -4546,7 +4560,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <f>AVERAGE(L2:L16)</f>
@@ -4555,7 +4569,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <f>AVERAGE(J5:J19)</f>
@@ -4564,7 +4578,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
         <f>STDEV(J5:J19)</f>

--- a/brynmawr/fallAnalysis.xlsx
+++ b/brynmawr/fallAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dndin\Documents\CS340\project\cs340-project\brynmawr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EBE971-DA15-4B1E-BAD0-3AA6502EAA4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC29D2B-55F1-402E-8711-6464E995BC6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
+    <workbookView xWindow="1290" yWindow="2490" windowWidth="17805" windowHeight="12480" firstSheet="4" activeTab="6" xr2:uid="{41F0CD19-36E9-4CA9-A6FE-2857FFC324B3}"/>
   </bookViews>
   <sheets>
     <sheet name="no constraints" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="limiting subject conflict" sheetId="4" r:id="rId4"/>
     <sheet name="level constraint" sheetId="5" r:id="rId5"/>
     <sheet name="Level And Subject" sheetId="6" r:id="rId6"/>
+    <sheet name="first come first serve" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="21">
   <si>
     <t>Classes</t>
   </si>
@@ -99,6 +100,9 @@
   </si>
   <si>
     <t>Min:</t>
+  </si>
+  <si>
+    <t>Mean:</t>
   </si>
 </sst>
 </file>
@@ -2452,7 +2456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52293D6E-ACFD-4E22-982B-246A4AD891D0}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="140" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -3884,7 +3888,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="128" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection sqref="A1:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4588,4 +4592,684 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B088A67B-4CC9-4A87-8102-AC4BE8B418A7}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>231</v>
+      </c>
+      <c r="C2">
+        <v>141</v>
+      </c>
+      <c r="D2">
+        <v>1112</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>1.56676769256591E-2</v>
+      </c>
+      <c r="H2">
+        <v>3497</v>
+      </c>
+      <c r="I2">
+        <v>3057</v>
+      </c>
+      <c r="J2">
+        <f>I2/H2</f>
+        <v>0.87417786674292253</v>
+      </c>
+      <c r="K2">
+        <f>I2-'no constraints'!I2</f>
+        <v>-71</v>
+      </c>
+      <c r="L2">
+        <f>J2-'no constraints'!J2</f>
+        <v>-2.0303116957392064E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>222</v>
+      </c>
+      <c r="C3">
+        <v>151</v>
+      </c>
+      <c r="D3">
+        <v>1096</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>1.5667915344238201E-2</v>
+      </c>
+      <c r="H3">
+        <v>3542</v>
+      </c>
+      <c r="I3">
+        <v>3125</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J16" si="0">I3/H3</f>
+        <v>0.88226990400903449</v>
+      </c>
+      <c r="K3">
+        <f>I3-'no constraints'!I3</f>
+        <v>-48</v>
+      </c>
+      <c r="L3">
+        <f>J3-'no constraints'!J3</f>
+        <v>-1.3551665725578754E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>239</v>
+      </c>
+      <c r="C4">
+        <v>144</v>
+      </c>
+      <c r="D4">
+        <v>1090</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <v>1.56214237213134E-2</v>
+      </c>
+      <c r="H4">
+        <v>3579</v>
+      </c>
+      <c r="I4">
+        <v>3094</v>
+      </c>
+      <c r="J4">
+        <f>I4/H4</f>
+        <v>0.86448728695166244</v>
+      </c>
+      <c r="K4">
+        <f>I4-'no constraints'!I4</f>
+        <v>-21</v>
+      </c>
+      <c r="L4">
+        <f>J4-'no constraints'!J4</f>
+        <v>-5.8675607711651256E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>241</v>
+      </c>
+      <c r="C5">
+        <v>132</v>
+      </c>
+      <c r="D5">
+        <v>1104</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>1.56223773956298E-2</v>
+      </c>
+      <c r="H5">
+        <v>3539</v>
+      </c>
+      <c r="I5">
+        <v>3157</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.89205990392766321</v>
+      </c>
+      <c r="K5">
+        <f>I5-'no constraints'!I5</f>
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f>J5-'no constraints'!J5</f>
+        <v>1.4128284826222526E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>265</v>
+      </c>
+      <c r="C6">
+        <v>142</v>
+      </c>
+      <c r="D6">
+        <v>1124</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>51</v>
+      </c>
+      <c r="G6">
+        <v>1.56707763671875E-2</v>
+      </c>
+      <c r="H6">
+        <v>3700</v>
+      </c>
+      <c r="I6">
+        <v>3211</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.86783783783783786</v>
+      </c>
+      <c r="K6">
+        <f>I6-'no constraints'!I6</f>
+        <v>-97</v>
+      </c>
+      <c r="L6">
+        <f>J6-'no constraints'!J6</f>
+        <v>-2.621621621621617E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>255</v>
+      </c>
+      <c r="C7">
+        <v>147</v>
+      </c>
+      <c r="D7">
+        <v>1127</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>1.56803131103515E-2</v>
+      </c>
+      <c r="H7">
+        <v>3680</v>
+      </c>
+      <c r="I7">
+        <v>3173</v>
+      </c>
+      <c r="J7">
+        <f>I7/H7</f>
+        <v>0.86222826086956517</v>
+      </c>
+      <c r="K7">
+        <f>I7-'no constraints'!I7</f>
+        <v>-93</v>
+      </c>
+      <c r="L7">
+        <f>J7-'no constraints'!J7</f>
+        <v>-2.5271739130434789E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>269</v>
+      </c>
+      <c r="C8">
+        <v>149</v>
+      </c>
+      <c r="D8">
+        <v>1167</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>63</v>
+      </c>
+      <c r="G8">
+        <v>1.5620470046996999E-2</v>
+      </c>
+      <c r="H8">
+        <v>3798</v>
+      </c>
+      <c r="I8">
+        <v>3312</v>
+      </c>
+      <c r="J8">
+        <f>I8/H8</f>
+        <v>0.87203791469194314</v>
+      </c>
+      <c r="K8">
+        <f>I8-'no constraints'!I8</f>
+        <v>-67</v>
+      </c>
+      <c r="L8">
+        <f>J8-'no constraints'!J8</f>
+        <v>-1.764086361242756E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>283</v>
+      </c>
+      <c r="C9">
+        <v>152</v>
+      </c>
+      <c r="D9">
+        <v>1148</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>1.56672000885009E-2</v>
+      </c>
+      <c r="H9">
+        <v>3862</v>
+      </c>
+      <c r="I9">
+        <v>3329</v>
+      </c>
+      <c r="J9">
+        <f>I9/H9</f>
+        <v>0.8619886069394096</v>
+      </c>
+      <c r="K9">
+        <f>I9-'no constraints'!I9</f>
+        <v>-120</v>
+      </c>
+      <c r="L9">
+        <f>J9-'no constraints'!J9</f>
+        <v>-3.1071983428275551E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>284</v>
+      </c>
+      <c r="C10">
+        <v>156</v>
+      </c>
+      <c r="D10">
+        <v>1213</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>1.56672000885009E-2</v>
+      </c>
+      <c r="H10">
+        <v>3794</v>
+      </c>
+      <c r="I10">
+        <v>3367</v>
+      </c>
+      <c r="J10">
+        <f>I10/H10</f>
+        <v>0.88745387453874536</v>
+      </c>
+      <c r="K10">
+        <f>I10-'no constraints'!I10</f>
+        <v>-33</v>
+      </c>
+      <c r="L10">
+        <f>J10-'no constraints'!J10</f>
+        <v>-8.6979441222984066E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>264</v>
+      </c>
+      <c r="C11">
+        <v>146</v>
+      </c>
+      <c r="D11">
+        <v>1352</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>67</v>
+      </c>
+      <c r="G11">
+        <v>1.5620708465576101E-2</v>
+      </c>
+      <c r="H11">
+        <v>4057</v>
+      </c>
+      <c r="I11">
+        <v>3612</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.89031303919152083</v>
+      </c>
+      <c r="K11">
+        <f>I11-'no constraints'!I11</f>
+        <v>-48</v>
+      </c>
+      <c r="L11">
+        <f>J11-'no constraints'!J11</f>
+        <v>-1.1831402514173028E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>288</v>
+      </c>
+      <c r="C12">
+        <v>159</v>
+      </c>
+      <c r="D12">
+        <v>1475</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>68</v>
+      </c>
+      <c r="G12">
+        <v>1.56199932098388E-2</v>
+      </c>
+      <c r="H12">
+        <v>4466</v>
+      </c>
+      <c r="I12">
+        <v>4030</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.90237348858038513</v>
+      </c>
+      <c r="K12">
+        <f>I12-'no constraints'!I12</f>
+        <v>-26</v>
+      </c>
+      <c r="L12">
+        <f>J12-'no constraints'!J12</f>
+        <v>-5.8217644424540804E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>280</v>
+      </c>
+      <c r="C13">
+        <v>157</v>
+      </c>
+      <c r="D13">
+        <v>1600</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>1.5620708465576101E-2</v>
+      </c>
+      <c r="H13">
+        <v>4671</v>
+      </c>
+      <c r="I13">
+        <v>4238</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.90730036394776281</v>
+      </c>
+      <c r="K13">
+        <f>I13-'no constraints'!I13</f>
+        <v>-33</v>
+      </c>
+      <c r="L13">
+        <f>J13-'no constraints'!J13</f>
+        <v>-7.0648683365446274E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>293</v>
+      </c>
+      <c r="C14">
+        <v>157</v>
+      </c>
+      <c r="D14">
+        <v>1659</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>1.5623331069946201E-2</v>
+      </c>
+      <c r="H14">
+        <v>4813</v>
+      </c>
+      <c r="I14">
+        <v>4330</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.8996467899439019</v>
+      </c>
+      <c r="K14">
+        <f>I14-'no constraints'!I14</f>
+        <v>-70</v>
+      </c>
+      <c r="L14">
+        <f>J14-'no constraints'!J14</f>
+        <v>-1.4543943486391098E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>320</v>
+      </c>
+      <c r="C15">
+        <v>163</v>
+      </c>
+      <c r="D15">
+        <v>1644</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>69</v>
+      </c>
+      <c r="G15">
+        <v>1.56092643737792E-2</v>
+      </c>
+      <c r="H15">
+        <v>4739</v>
+      </c>
+      <c r="I15">
+        <v>4324</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.91242878244355352</v>
+      </c>
+      <c r="K15">
+        <f>I15-'no constraints'!I15</f>
+        <v>-9</v>
+      </c>
+      <c r="L15">
+        <f>J15-'no constraints'!J15</f>
+        <v>-1.899134838573513E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>280</v>
+      </c>
+      <c r="C16">
+        <v>160</v>
+      </c>
+      <c r="D16">
+        <v>1635</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>67</v>
+      </c>
+      <c r="G16">
+        <v>4.7862529754638602E-3</v>
+      </c>
+      <c r="H16">
+        <v>4558</v>
+      </c>
+      <c r="I16">
+        <v>4138</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.90785432207108385</v>
+      </c>
+      <c r="K16">
+        <f>I16-'no constraints'!I16</f>
+        <v>-27</v>
+      </c>
+      <c r="L16">
+        <f>J16-'no constraints'!J16</f>
+        <v>-5.9236507240016945E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(J2:J16)</f>
+        <v>0.88563054951246611</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>